--- a/data/orientações.xlsx
+++ b/data/orientações.xlsx
@@ -2971,7 +2971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3018,28 +3018,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>DAHER, Andrea. A pequena grande história de Giovanni Levi. 2021. Filme.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>Beatriz Weisheimer de Mendonça.
 						O ?governo da casa?: Economia costumeira no Rio de Janeiro setecentista.
@@ -3049,16 +3034,16 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Joaquim Guilherme Camargo Mendes.
 						Os ourives e sua atuação na cidade do Rio de Janeiro no século XVIII.
@@ -3068,16 +3053,16 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Gustavo Saraiva Soares.
 						Os ourives e suas associações na Bahia do século XVIII.
@@ -3087,16 +3072,16 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B6" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Lucas Domingues Torres do Nascimento.
 						Celebrações no Bispado do Rio de Janeiro do século XVIII.
@@ -3106,16 +3091,16 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Daniele Meirelles Lambert.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3125,16 +3110,16 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Anna Clara Gonçalves.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3144,16 +3129,16 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Beatriz Gomes de Souza.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3162,16 +3147,16 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Daniel Pereira Aragão.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3181,16 +3166,16 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Gustavo Felicidade da Costa.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3199,16 +3184,16 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Luana Midmacher.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3217,16 +3202,16 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Deivid Valério Gaia</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B13" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Filipe Ramos Cerqueira.
 						As relações entre alteridade e domínio: um estudo a partir da iconografia monetária..
@@ -3235,79 +3220,16 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Deivid Valério Gaia</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FORMISANO, M. ;Gaia, Deivid Valério; SANTORO, F. . Organização do curso de extensão sobre História Antiga e problemas ambientais com Marco Formisano da Universidade de Gant - Belgica. 2022. (Outro).</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Fernando Luiz Vale Castro</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>CASTRO, F. L. V.. Afinal-pele-foi-conivente-com-ditadura-militar. 2021.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Fernando Luiz Vale Castro</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>CASTRO, F. L. V.. Herdeiros de Chico Guanabara. 2021.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Fernando Luiz Vale Castro</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>CASTRO, F. L. V.. A memória do Rei: Ciências Sociais devem manter pelé vivo, com releituras e pluralidades. 2023.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Suelen da Silva Sousa.
 						Atualização historiográfica sobre a Peste Negra (1348): os impactos comunitários da epidemia em regiões não europeias..
@@ -3317,16 +3239,16 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Suelen da Silva Sousa.
 						Atualização Historiográfica sobre s Segunda Pandemia da Peste (pós-2011): por uma história global da epidemia.
@@ -3336,16 +3258,16 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Luana Duarte de Freitas.
 						O sofrimento durante a Peste Negra (1348):  Uma História Social Das Emoções (a ira no Decameron de Giovanni Boccaccio).
@@ -3355,16 +3277,16 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>Jéssica Matos de Oliveira.
 						?Comunidades emocionais? no Peru: comparação de narrativas das crônicas de ordens religiosas (sécs. XVI-XVII).
@@ -3374,32 +3296,16 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Jorge Victor de Araújo Souza</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>CAMENIETZKI, C. Z. ; CARVALHO, D. P. O. ;SOUZA, J. V. A.. Perspectivas em História Moderna (Extensão). 2022; Tema:
-						Pesquisas atuais em História Moderna. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>Pedro Gomes Mariano.
 						Arqueologia e História Ambiental: Diálogos possíveis e existentes no contexto da Mata Atlântica.
@@ -3409,16 +3315,16 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B19" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Patrick Barros Benaion.
 						OCC! Novas respostas comunitárias aos desafios das mudanças climáticas,  um projeto interdisciplinar.
@@ -3428,16 +3334,16 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Julia Duarte Teixeira.
 						Estratégias Sócio-Ambientais: o Morro da Babilônia (OCC!).
@@ -3447,16 +3353,16 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Felipe José Souza Fernandes da Silva.
 						História e Ficção: Literalidade da história e historicidade da literatura.
@@ -3466,16 +3372,16 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Lorena Pires Barros.
 						História e Ficção: Estudos sobre a literalidade da historiografia e a historicidade da literatura.
@@ -3484,16 +3390,16 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>Giovana do Nascimento Bruno.
 						O romance de formação em perspectiva histórica.
@@ -3503,16 +3409,16 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Vinicius Nobre Tardite.
 						.Construindo a Paz sobre Memórias de Guerra: El Salvador.
@@ -3522,16 +3428,16 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Adriana Silva Eugênio.
 						Estudo sobre o processo de paz na Colômbia.
@@ -3541,16 +3447,16 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B26" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Simone Pinto.
 						Lute como uma mãe: trajetória política de mães de vítimas de violência de estado no Rio de Janeiro.
@@ -3560,16 +3466,16 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B27" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Talita Duarte.
 						Fontes para a História das Mulheres na Grécia Antiga.
@@ -3579,16 +3485,16 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Juliana Miranda Bello.
 						Historia e Historiografia da Antiguidade grega.
@@ -3597,64 +3503,16 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Marta Mega de Andrade</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. M.; ARAUJO, C. B. . Mulheres na Filosofia - Aspásia de Mileto. 2022.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Marta Mega de Andrade</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>ANDRADE, MARTA MEGA DE; SANTOS, A. C. ; BATISTA, L C ; NEVES, D. . Despensando a polis. 2022; Tema:
-						História antiga grega para as redes sociais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Marta Mega de Andrade</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. M.. Aspásia de Mileto. 2022; Tema:
-						Blog Mulheres na Filosofia - participação especial. (Blog).</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Nuno Carlos de Fragoso Vidal</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Felipe Adão Moreira Nóbrega de Andrade.
 						Democratização e Integridade Eleitoral em Angola e Moçambique.
@@ -3664,16 +3522,16 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B30" t="n">
         <v>2024</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Larissa de Oliveira Farias.
                             O ?Motim da Fome?: os impactos da greve geral de 1962 na Baixada Fluminense.
@@ -3683,16 +3541,16 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Natália Gomes Almeida.
                             "Quando a fábrica fecha": Trabalho, território e desindustrialização em Bangu (décadas de 1960 e 70).
@@ -3702,16 +3560,16 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Jessica Siqueira dos Reis Costa.
 						Amores ilícitos e abandono: um estudo sobre as causas e consequências da exposição de crianças nos séculos XVIII e XIX.
@@ -3720,16 +3578,16 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Louhana Rosa Dias de Oliveira.
 						Crime, pecado e remissão: Um olhar através das Escrituras de Perdão do Rio de Janeiro setecentista.
@@ -3738,16 +3596,16 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="B34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Lucas de Almeida Nascimento.
 						Degredados em Moçambique (século XIX).
@@ -3756,16 +3614,16 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="B35" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>JORDANA PEREIRA RODRIGUES.
 						Malakat?s y Siervos. Makatab y manumissíon Comparando fontes islâmicas e hispânicas sobre servidão e liberdade na Idade Média.
@@ -3775,16 +3633,16 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B36" t="n">
         <v>2024</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Joaquim Guilherme de Camargo Mendes.
                             Em torno da boulangerie do barão d'Holbach: cultura impressa e radicalismo na França das Luzes.
@@ -3794,16 +3652,16 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B37" t="n">
         <v>2024</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Marina da Silva Pereira.
                             Dos espinhos aos castanheiros: Diderot e Filosofia Radical na cultura impressa do XVIII.
@@ -3813,16 +3671,16 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Luisa Pádua Zanon.
                             Entre as possessões e o diabo: Cultura impressa e a representação do sobrenatural e dos possessos na Inglaterra Moderna.
@@ -3831,16 +3689,16 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Gabrielle Pacheco Noacco.
                             As representações de mulheres pecadoras na literatura de rua inglesa (séculos XVI e XVII).
@@ -3849,16 +3707,16 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>André Moreira.
                             Do deísmo ao ateísmo: a transição religiosa e filosófica de Denis Diderot (1745-1749).
@@ -3867,16 +3725,16 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="B41" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Maria Júlia Viana.
                             ?The wife maliciously killeth her husband?: mulheres criminosas e suas representações na literatura de rua inglesa (XVI-XVII).
@@ -3885,16 +3743,16 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="B42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Luísa Pádua Zanon.
                             Mulheres desregradas: narrativas de crimes femininos dos dois lados do canal da Mancha (França e Inglaterra, séculos XVI e XVII).
@@ -3903,16 +3761,16 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B43" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Gabrielle Pacheco Noacco.
                             Mulheres desregradas: narrativas de crimes femininos dos dois lados do canal da Mancha (França e Inglaterra, séculos XVI e XVII).
@@ -3921,16 +3779,16 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B44" t="n">
         <v>2024</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Hevelynn Cristina Chaves.
 						Democracia em Tempos de Guerra Fria - Maquiavelismo em Raymond Aron.
@@ -3940,16 +3798,16 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B45" t="n">
         <v>2024</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Caroline Ferreira Vilanova.
 						Democracia em Tempos de Guerra Fria - Hannah Arendt e a Banalidade do Mal.
@@ -3959,16 +3817,16 @@
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="B46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Anna Carolina Ventura.
 						Comunismo e Fascismo nas Páginas da Punch - uma análise documentária do Humor Inglês.
@@ -3978,16 +3836,16 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Maria Eduarda Fontes da Costa e Silva Merz.
 						Comunismo e Fascismo nas Páginas da Punch - uma análise documentária do Humor Inglês.
@@ -3997,16 +3855,16 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Rayssa Silva Vieira.
 						Democracia em Tempos de Guerra Fria: Modernidade em Raymond Aron.
@@ -4016,16 +3874,16 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="B49" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Pedro Cantarino Rezende.
 						Democracia em Tempos de Guerra Fria: Esfera Pública em Hannah Arendt.
@@ -4035,16 +3893,16 @@
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="B50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Bruno Wandermurem de Oliveira Medeiros.
 						Democracia em Tempos de Guerra Fria: Verdade e Cultura em Hannah Arendt.
@@ -4053,16 +3911,16 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="B51" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Pedro Arreguy.
 						A Questão Christie..
@@ -6262,7 +6120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8612,16 +8470,16 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>GHERMAN, MICHEL; ROCHA, M. F. ; RIBAS, A. . Canall do Michel Gherman. 2022; Tema:
-						Debates sobre Politica nacional e internacional. (Rede social).</t>
+          <t>Gabriel Richard Barbosa. Ressentimento: um sentimento moral, muitas controvérsias.
+					Início: 2024. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -8636,7 +8494,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Gabriel Richard Barbosa. Ressentimento: um sentimento moral, muitas controvérsias.
+          <t>Cristal de Macedo de Oliveira Rosa. Senhoritas em uniforme: lesbianidade na República de Weimar (1931).
 					Início: 2024. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
@@ -8648,12 +8506,12 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Cristal de Macedo de Oliveira Rosa. Senhoritas em uniforme: lesbianidade na República de Weimar (1931).
-					Início: 2024. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Lúcio Neves Bairral Dias. O papel do jornal O Globo no fomento do anticomunismo e do antipetismo nos golpes de 1964 e 2016.
+					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - UNIRIO/CEDERJ. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -8664,12 +8522,12 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Lúcio Neves Bairral Dias. O papel do jornal O Globo no fomento do anticomunismo e do antipetismo nos golpes de 1964 e 2016.
-					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - UNIRIO/CEDERJ. (Orientador).</t>
+          <t>Igor Cassal de Medeiros. Guerreei na juventude, fiz por voce o que pude, Mangueira: A Mangueira e a unidade de Polícia Pacificadora.
+					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Instituto de História da UFRJ. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -8680,25 +8538,9 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C137" t="inlineStr">
-        <is>
-          <t>Igor Cassal de Medeiros. Guerreei na juventude, fiz por voce o que pude, Mangueira: A Mangueira e a unidade de Polícia Pacificadora.
-					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Instituto de História da UFRJ. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C138" t="inlineStr">
         <is>
           <t>Rodrigo Brum.
 						A atitude de Rosa Parks e seu impacto na imprensa do Alabama (1955).
@@ -8707,16 +8549,16 @@
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C139" t="inlineStr">
+      <c r="B138" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>Priscilla Santos Nunes.
 						O papel do Estado brasileiro na extradição de Olga Benario Prestes.
@@ -8725,16 +8567,16 @@
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C140" t="inlineStr">
+      <c r="B139" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>José Ricardo Andrade.
 						RACISMO E INVISIBILIDADE DO POVO NEGRO NAS NOVAS ARENAS DO FUTEBOL BRASILEIRO.
@@ -8743,6 +8585,22 @@
         </is>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Mônica Lima e Souza</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Eduardo Batista de Souza. ?Se a rádio patrulha chegasse aqui agora, seria uma grande vitória. Ninguém poderia correr??: As denúncias, anúncios e perseguições policiais feitas aos terreiros de umbanda(s) no Rio de Janeiro (1955-1959).
+					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
@@ -8754,7 +8612,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Eduardo Batista de Souza. ?Se a rádio patrulha chegasse aqui agora, seria uma grande vitória. Ninguém poderia correr??: As denúncias, anúncios e perseguições policiais feitas aos terreiros de umbanda(s) no Rio de Janeiro (1955-1959).
+          <t>Izabel do Nascimento Gonçalves. O comércio interprovincial de escravizados: ligações entre as províncias do Norte e o porto do Rio de Janeiro na década de 1870.
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
@@ -8770,7 +8628,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Izabel do Nascimento Gonçalves. O comércio interprovincial de escravizados: ligações entre as províncias do Norte e o porto do Rio de Janeiro na década de 1870.
+          <t>Julia Cristina Provenzano. Imagem dos escravizados como ingratos e vingativos na literatura brasileira do século XIX.
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
@@ -8782,25 +8640,9 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C143" t="inlineStr">
-        <is>
-          <t>Julia Cristina Provenzano. Imagem dos escravizados como ingratos e vingativos na literatura brasileira do século XIX.
-					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mônica Lima e Souza</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C144" t="inlineStr">
         <is>
           <t>Leticia Fernandes Cabral.
 						O Cemitério de Pretos Novos e a historiografia: silenciamentos e abordagens sobre o campo santo.
@@ -8809,16 +8651,16 @@
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B145" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C145" t="inlineStr">
+      <c r="B144" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>Igor Bruno Dias.
 						Raízes, folhas e gotas de liberdade: Práticas de envenenamento por escravizados contra senhores, nas Províncias de Rio de janeiro e São Paulo (1850 ? 1888).
@@ -8827,16 +8669,16 @@
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C146" t="inlineStr">
+      <c r="B145" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>Yuri das Virgens Miranda.
 						Movimentos sociais na Primeira República: como o samba canta e encanta a História do Brasil.
@@ -8845,16 +8687,16 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C147" t="inlineStr">
+      <c r="B146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>Douglas Pereira Diniz.
 						Entre o Medo, a Fuga e o Destino: uma análise sobre as representações das masculinidades afro-americanas no romance Native Son (1940).
@@ -8863,16 +8705,16 @@
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C148" t="inlineStr">
+      <c r="B147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>Bruno Camenietzki Amorim.
 						Toca zabumba que o Rio é nosso: o Afoxé Filhos de Gandhi do Rio de Janeiro e sua atuação política, lúdica e religiosa entre 2017 e 2018 sob as lentes de um documentário.
@@ -8881,6 +8723,22 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Murilo Sebe Bon Meihy</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Michael Sousa de Barros. Os conceitos de trabalho e luta de classes no Manifesto do Partido Comunista de 1848.
+					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
@@ -8888,12 +8746,12 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Michael Sousa de Barros. Os conceitos de trabalho e luta de classes no Manifesto do Partido Comunista de 1848.
-					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Maria Flávia dos Reis. A Palestina de Joe Sacco.
+					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8766,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Maria Flávia dos Reis. A Palestina de Joe Sacco.
+          <t>Rafane Nunes. História da dança oriental: séculos XIX e XX.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
@@ -8920,25 +8778,9 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C151" t="inlineStr">
-        <is>
-          <t>Rafane Nunes. História da dança oriental: séculos XIX e XX.
-					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Murilo Sebe Bon Meihy</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C152" t="inlineStr">
         <is>
           <t>Isadora Novaes dos Santos Bohrer.
 						A longa trajetória do Saara Ocidental e o projeto de ocupação marroquina: passado e presente marcado por invasões.
@@ -8947,16 +8789,16 @@
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B153" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C153" t="inlineStr">
+      <c r="B152" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>Marcelle Maia Ribeiro de Queiroz.
 						A guerra ao Terror como veículo para ascensão da Islamofobia: uma análise acerca da construção da identidade islâmica.
@@ -8965,16 +8807,16 @@
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C154" t="inlineStr">
+      <c r="B153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>Luiza de Paschoal Mohamed.
 						A Grande Viagem: a Rihla de Ibn Battuta (1304-1377) no Egito mameluco e a importância do conhecimento no mundo islâmico.
@@ -8983,16 +8825,16 @@
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C155" t="inlineStr">
+      <c r="B154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>Juliana Carvalho da Silva.
 						O papel e o alcance do poder feminino no Candomblé brasileiro: a figura emblemática de Mãe Stella de Oxossi.
@@ -9001,16 +8843,16 @@
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B156" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C156" t="inlineStr">
+      <c r="B155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>Lohanna Rodrigues Reis.
 						O Neo-otomanismo turco no governo Erdogan e sua influência no Oriente Médio e no mundo islâmico.
@@ -9019,16 +8861,16 @@
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B157" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C157" t="inlineStr">
+      <c r="B156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>Raphael Pena de Almeida.
 						A reconstrução da Rússia e a construção do socialismo: a solidez da economia soviética frente a crise de 1929.
@@ -9037,47 +8879,32 @@
         </is>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Paulo Roberto Ribeiro Fontes</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Matheus Camargo Raitano. O retrato na parede que os paulistas colocaram: a eleição presidencial de 1950 e o papel de São Paulo na vitória de Getulio Vargas.
+                        Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Murilo Sebe Bon Meihy</t>
+          <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C158" t="inlineStr">
-        <is>
-          <t>MEIHY, M. S. B.; BRANCO, J. F. C. . Calculadora de Índice de Propensão a Conflito (IPC) - FAPERJ. 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Matheus Camargo Raitano. O retrato na parede que os paulistas colocaram: a eleição presidencial de 1950 e o papel de São Paulo na vitória de Getulio Vargas.
-                        Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Paulo Roberto Ribeiro Fontes</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C160" t="inlineStr">
         <is>
           <t>Mariana Alves.
                             Trabalhadores da Behring: perfil social e étnico na Primeira República.
@@ -9086,16 +8913,16 @@
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="B159" t="n">
         <v>2024</v>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Anna Luiza Silveira Ramos Fernandes.
                             ?Juntas descobrimos coisas que já sabíamos?: gênero, classe e o Movimento de Mulheres Trabalhadoras Rurais do Sertão Central de Pernambuco (1982-1988).
@@ -9104,16 +8931,16 @@
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B160" t="n">
         <v>2024</v>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Juliana Mendes da Silva.
                             Os trabalhadores de estiva: A vida dos trabalhadores no Porto do Rio no início do século XX sob o olhar de João do Rio.
@@ -9122,16 +8949,16 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B163" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C163" t="inlineStr">
+      <c r="B161" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>Phillip Mazza Guimarães.
                             A um clique da verdade: memórias subterrâneas, regime militar e novas direitas.
@@ -9140,16 +8967,16 @@
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C164" t="inlineStr">
+      <c r="B162" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>Yan Melo de Almeida.
                             Ministro sem pasta do futebol brasileiro: Mário Filho e a ?Batalha pelo Estádio? (1947).
@@ -9158,16 +8985,16 @@
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C165" t="inlineStr">
+      <c r="B163" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>Jhulye dos Santos Passarelo.
                             ?O Petróleo ainda é nosso??: A participação dos petroleiros do Rio de Janeiro nas mobilizações de 1987 e 1988 e a questão petrolífera na conjuntura política nacional.
@@ -9176,16 +9003,16 @@
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B166" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C166" t="inlineStr">
+      <c r="B164" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>Mateus Medrado.
                             Navegando contra a crise: bloco no poder, trabalho e sobredeterminação na reconstrução da Indústria Naval Fluminense (1995-2002).
@@ -9194,16 +9021,16 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C167" t="inlineStr">
+      <c r="B165" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>Thompson Clímaco Alves.
                             Entre lavouras e fábricas: trabalhadores e industrialização no município de Barra Mansa (1920-1930).
@@ -9212,16 +9039,16 @@
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B168" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C168" t="inlineStr">
+      <c r="B166" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>Antonio Daniel Corria de Araújo.
                             Uma Aspiração Secular: da idealização da ponte Rio-Niterói a sua construção pelos trabalhadores (1968-1974).
@@ -9230,16 +9057,16 @@
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B169" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C169" t="inlineStr">
+      <c r="B167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>Everton Adriano Silva.
                             A copa e a cozinha em luta: a greve dos empregados hoteleiros do Rio de Janeiro (1953).
@@ -9248,16 +9075,16 @@
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B170" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C170" t="inlineStr">
+      <c r="B168" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>Felipe Annunziata.
                             Do abolicionismo ao socialismo: a trajetória de Luiz da França e Silva e da revista Typographica.
@@ -9266,16 +9093,16 @@
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B169" t="n">
         <v>2024</v>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>Jean Pedro Silva de Sousa.
 						Da liberdade à frustração: o governo estadual de José Sarney no Maranhão entre 1965-1969.
@@ -9284,16 +9111,16 @@
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B170" t="n">
         <v>2024</v>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Jorge Luiz Pacheco.
 						Industriais e o pré-golpe empresarial-militar de 1964: ações e manifestações no CIRJ e na FIRJAN.
@@ -9302,16 +9129,16 @@
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B173" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C173" t="inlineStr">
+      <c r="B171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C171" t="inlineStr">
         <is>
           <t>Pedro Henrique Corrêa Jacob.
 						Rogai por nós pecadores: a trajetória do cristianismo da libertação no Chile revolucionário.
@@ -9320,16 +9147,16 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C174" t="inlineStr">
+      <c r="B172" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C172" t="inlineStr">
         <is>
           <t>João Pedro Teixeira Ferreira Thimoteo.
 						O Partido dos Trabalhadores aos olhos da ditadura: contrarrevolução e luta de massas na transição à democracia restrita (1979-1988).
@@ -9338,16 +9165,16 @@
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B175" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C175" t="inlineStr">
+      <c r="B173" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>Ingrid Ribeiro Santos Araujo.
 						ALVO ESTUDANTIL: A repressão contra o Movimento de Ocupações das escolas paulistas em 2015.
@@ -9356,16 +9183,16 @@
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B176" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C176" t="inlineStr">
+      <c r="B174" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>Sofia Magalhães Gonçalves.
 						As relações entre o desenvolvimento do capitalismo e o processo de favelização no Rio de Janeiro (1893-1907).
@@ -9374,16 +9201,16 @@
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B177" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C177" t="inlineStr">
+      <c r="B175" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C175" t="inlineStr">
         <is>
           <t>Marcus Vinícius Nunes Medina.
 						Guerra do Paraguai: da senzala para o front, a guerra como alforria.
@@ -9392,16 +9219,16 @@
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B178" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C178" t="inlineStr">
+      <c r="B176" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C176" t="inlineStr">
         <is>
           <t>Renata Figueiredo do Vale.
 						A violência urbana no Rio de Janeiro segundo o jornal Movimento.
@@ -9410,6 +9237,38 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Roberto Guedes Ferreira</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Juliano Mello Vieira. Disputas e narrativas políticas em torno da memória da escravidão.
+					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal Rural do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Roberto Guedes Ferreira</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Caio de Mattos Carvalho. Economia D?alma: O fluxo do mercado interno brasileiro no século XIX.
+					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal Rural do Rio de Janeiro, FAPERJ/CNPQ. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
@@ -9420,38 +9279,6 @@
         <v>2022</v>
       </c>
       <c r="C179" t="inlineStr">
-        <is>
-          <t>Juliano Mello Vieira. Disputas e narrativas políticas em torno da memória da escravidão.
-					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal Rural do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Caio de Mattos Carvalho. Economia D?alma: O fluxo do mercado interno brasileiro no século XIX.
-					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal Rural do Rio de Janeiro, FAPERJ/CNPQ. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Roberto Guedes Ferreira</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C181" t="inlineStr">
         <is>
           <t>JORDANA PEREIRA RODRIGUES.
 						Malakat?s y Siervos. Makatab y manumissíon Comparando fontes islâmicas e hispânicas sobre servidão e liberdade na Idade Média.
@@ -9461,16 +9288,16 @@
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C182" t="inlineStr">
+      <c r="B180" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C180" t="inlineStr">
         <is>
           <t>Louhana Rosa Dias de Oliveira.
 						Crime, pecado e remissão: Um olhar através das Escrituras de Perdão do Rio de Janeiro setecentista.
@@ -9479,16 +9306,16 @@
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B183" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C183" t="inlineStr">
+      <c r="B181" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C181" t="inlineStr">
         <is>
           <t>Lucas Almeida.
 						Degredados em Moçambique (século XIX).
@@ -9497,16 +9324,16 @@
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B184" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C184" t="inlineStr">
+      <c r="B182" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C182" t="inlineStr">
         <is>
           <t>Daniel Soares Lopes Morais.
 						A composição social da Santa Casa de Misericória (Rio de Janeiro,1700-1800).
@@ -9515,16 +9342,16 @@
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B185" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C185" t="inlineStr">
+      <c r="B183" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t>Giovana Souza Guimarães do Nascimento.
                             La Piú illustre ed eccellente matrona: Isabella d?Este e o poder pela arte do Renascimento italiano.
@@ -9533,6 +9360,38 @@
         </is>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Hevelynn Chaves. Maquiavelismo na teoria do totalitarismo de R. Aron.
+					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Vinícius Aurélio Liebel</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Ana Jullia do Nascimento Gomes. Jojo Rabbit e O menino do pijama listrado: o nazismo revisitado pelo cinema contemporâneo.
+					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
@@ -9544,7 +9403,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Hevelynn Chaves. Maquiavelismo na teoria do totalitarismo de R. Aron.
+          <t>João Victor Barreiro. A Construção do Franquismo na Imprensa Falangista (1936-1939).
 					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
@@ -9556,12 +9415,12 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Ana Jullia do Nascimento Gomes. Jojo Rabbit e O menino do pijama listrado: o nazismo revisitado pelo cinema contemporâneo.
-					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Raquel Bravo. Bolsonarismo por Bolsonaro: uma análise das mídias sociais de Jair Messias nas eleições de 2018.
+					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -9572,12 +9431,12 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>João Victor Barreiro. A Construção do Franquismo na Imprensa Falangista (1936-1939).
-					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Anna Carolina Ventura. O Fascismo Inglês e a Questão Agrária.
+					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9451,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Raquel Bravo. Bolsonarismo por Bolsonaro: uma análise das mídias sociais de Jair Messias nas eleições de 2018.
+          <t>Camilla Gonzalez Medeiros da Fonseca. A Guerra Fria sob o olhar da Careta: Relações entre Estados Unidos da América e União Soviética (1944-1960).
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
@@ -9608,7 +9467,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Anna Carolina Ventura. O Fascismo Inglês e a Questão Agrária.
+          <t>Pedro Arreguy. Clara Zetkin e seu olhar sobre o Fascismo.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
@@ -9624,7 +9483,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Camilla Gonzalez Medeiros da Fonseca. A Guerra Fria sob o olhar da Careta: Relações entre Estados Unidos da América e União Soviética (1944-1960).
+          <t>Dora Vaz. Zamiátin e Rand: Representações do Anticomunismo.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
@@ -9636,12 +9495,12 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Pedro Arreguy. Clara Zetkin e seu olhar sobre o Fascismo.
-					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Clara Fonseca. A Ideia de Modernidade na Obra de Hannah Arendt.
+					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -9652,41 +9511,9 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C193" t="inlineStr">
-        <is>
-          <t>Dora Vaz. Zamiátin e Rand: Representações do Anticomunismo.
-					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Clara Fonseca. A Ideia de Modernidade na Obra de Hannah Arendt.
-					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Vinícius Aurélio Liebel</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C195" t="inlineStr">
         <is>
           <t>Rayssa Silva Vieira.
 						Totalitarismo em debate: as perspectivas do conceito em Arendt e Aron (1951-1965).
@@ -9695,16 +9522,16 @@
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="B194" t="n">
         <v>2024</v>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C194" t="inlineStr">
         <is>
           <t>Breno Ventura Barbosa.
 						O Debate dos anos 1920: a capitulação da teoria da Revolução Permanente no Partido Bolchevique (1923-1926).
@@ -9713,16 +9540,16 @@
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B195" t="n">
         <v>2024</v>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>Isabel Christimann de Miranda.
 						Representações do Totalitarismo em Jogos Vorazes e as distopias como ferramenta de análise para a violência.
@@ -9731,16 +9558,16 @@
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B196" t="n">
         <v>2024</v>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>Pedro Cantarino Rezende.
 						?A política morreu, viva a política?: Uma análise dos sentidos da ação política e da democracia na plataforma política de Herbert Daniel (1986).
@@ -9749,16 +9576,16 @@
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B199" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C199" t="inlineStr">
+      <c r="B197" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C197" t="inlineStr">
         <is>
           <t>Murilo Rosa Garcias.
 						Um Judeu Maçom na Pregação Protestante: A trajetória de Salomão Guinsburg no Norte Fluminense (1890-1899).
@@ -9767,16 +9594,16 @@
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B200" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C200" t="inlineStr">
+      <c r="B198" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C198" t="inlineStr">
         <is>
           <t>Eduardo Dias Campanelli.
 						A Estratégia discursiva sobre Memória na Graphic Novel Maus.
@@ -9785,16 +9612,16 @@
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B201" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C201" t="inlineStr">
+      <c r="B199" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C199" t="inlineStr">
         <is>
           <t>Rodrigo Habl.
 						Da Infância à Primeira Guerra: a formação de Hitler nas biografias de Joachim Fest e Ian Kershaw.
@@ -9803,16 +9630,16 @@
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B202" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C202" t="inlineStr">
+      <c r="B200" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C200" t="inlineStr">
         <is>
           <t>Leonardo Gonçalves da Costa.
 						Trabalhadores de todos os países e povos oprimidos de todo o mundo: uni-vos! O Congresso dos povos do Oriente (1920) e a luta anticolonial.
@@ -9821,16 +9648,16 @@
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B203" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C203" t="inlineStr">
+      <c r="B201" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C201" t="inlineStr">
         <is>
           <t>Maria Eduarda Fontes da Costa e Silva Merz.
 						Gênero e Humor: As Representações do Feminino nas Capas da Revista Simplicissimus (1933-1939).
@@ -9839,16 +9666,16 @@
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B204" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C204" t="inlineStr">
+      <c r="B202" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C202" t="inlineStr">
         <is>
           <t>Harel Salim.
 						A nova direita e sua consolidação por meio de uma comunidade de sentido nas mídias sociais: análise do caso brasileiro.
@@ -9857,16 +9684,16 @@
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B205" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C205" t="inlineStr">
+      <c r="B203" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C203" t="inlineStr">
         <is>
           <t>Ana Beatriz Ferreira Marques.
 						Representações da Revolução no Filme Outubro, de Eisenstein.
@@ -9875,16 +9702,16 @@
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B206" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C206" t="inlineStr">
+      <c r="B204" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C204" t="inlineStr">
         <is>
           <t>Lorrany Lima Alves da Costa.
 						'Shoah' - Uma análise sobre a necessidade da memória no debate público acerca do Holocausto.
@@ -9893,16 +9720,16 @@
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B207" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C207" t="inlineStr">
+      <c r="B205" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C205" t="inlineStr">
         <is>
           <t>Bruno Wandermurem de Oliveira Medeiros.
 						Negacionismo gráfico: Israel e o Holocausto nos concursos de charges no Irã  (2006 e 2016).
@@ -9911,16 +9738,16 @@
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B208" t="n">
+      <c r="B206" t="n">
         <v>2024</v>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>Lizandra da Silva Rodrigues.
 						A arte da política: a ação da rainha Catarina de Portugal na representação visual do poder da dinastia de Avis.
@@ -9929,16 +9756,16 @@
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B209" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C209" t="inlineStr">
+      <c r="B207" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C207" t="inlineStr">
         <is>
           <t>Milene dos Santos Ribeiro.
 						Da bestialidade ao súdito: o ensino jesuítico como dispositivo de manutenção de poder e organização social luso-brasileiro na Bahia (1549-1560).
@@ -9947,16 +9774,16 @@
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B210" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C210" t="inlineStr">
+      <c r="B208" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C208" t="inlineStr">
         <is>
           <t>Mariana Barrozo Gonzalez.
 						O comportamento esperado e a prática realizada: casamento e divórcio no Rio de Janeiro no século XIX (1808-1831).
@@ -9966,16 +9793,16 @@
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B211" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C211" t="inlineStr">
+      <c r="B209" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C209" t="inlineStr">
         <is>
           <t>Andrey Damico Adorno Soares.
 						DAS PROMESSAS DE CASAMENTO AO ÓDIO CAPITAL: AS REPRESENTAÇÕES DE GÊNERO NAS AÇÕES DE DIVÓRCIO DO TRIBUNAL ECLESIÁSTICO DO RIO DE JANEIRO (1808-1823).
@@ -9985,16 +9812,16 @@
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B212" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C212" t="inlineStr">
+      <c r="B210" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C210" t="inlineStr">
         <is>
           <t>Júlio Chaves Seixas.
 						REPRESENTAÇÕES DA HONRA E HONESTIDADE FEMININA E DA VIOLÊNCIA MASCULINA NOS LIBELOS DE DIVÓRCIO DO INÍCIO DO SÉCULO XIX NO RIO DE JANEIRO.
@@ -10004,16 +9831,16 @@
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B213" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C213" t="inlineStr">
+      <c r="B211" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C211" t="inlineStr">
         <is>
           <t>Beatriz Martins de Andrade.
 						As plurais maternidades no Rio de Janeiro do século XIX.
@@ -10022,16 +9849,16 @@
         </is>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B214" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C214" t="inlineStr">
+      <c r="B212" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C212" t="inlineStr">
         <is>
           <t>Ariana Costa dos Santos.
 						Maria Joaquina da Costa Botelho de Magalhães: a matriarca da família Botelho Magalhães sob a ótica de correspondências entre 1863 e 1921.
@@ -10051,7 +9878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10098,28 +9925,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Andrea Daher</t>
+          <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>DAHER, Andrea. A pequena grande história de Giovanni Levi. 2021. Filme.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Antonio Carlos Jucá de Sampaio</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>Beatriz Weisheimer de Mendonça.
 						O ?governo da casa?: Economia costumeira no Rio de Janeiro setecentista.
@@ -10129,6 +9941,21 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Beatriz Catão Cruz Santos</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Maria Clara Carvalho Fernandes da Silva. Os ourives, suas práticas e a História Urbana do Rio de Janeiro - século XVIII. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -10136,11 +9963,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Maria Clara Carvalho Fernandes da Silva. Os ourives, suas práticas e a História Urbana do Rio de Janeiro - século XVIII. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Marcus Vinícius dos Anjos. As irmandades de ofício no Império Português: os ourives e suas sociabilidades. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -10151,24 +9978,9 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>Marcus Vinícius dos Anjos. As irmandades de ofício no Império Português: os ourives e suas sociabilidades. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Beatriz Catão Cruz Santos</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>Joaquim Guilherme Camargo Mendes.
 						Os ourives e sua atuação na cidade do Rio de Janeiro no século XVIII.
@@ -10178,16 +9990,16 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Gustavo Saraiva Soares.
 						Os ourives e suas associações na Bahia do século XVIII.
@@ -10197,16 +10009,16 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Lucas Domingues Torres do Nascimento.
 						Celebrações no Bispado do Rio de Janeiro do século XVIII.
@@ -10216,6 +10028,21 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cláudio Costa Pinheiro</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>André Gustavo Januário. Quando éramos Reis As independências, o desenvolvimentismo e o impacto político da constituição dos estudos de área na África e no Sul Global, pós 2ª Guerra Mundial. Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
@@ -10226,21 +10053,6 @@
         <v>2022</v>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>André Gustavo Januário. Quando éramos Reis As independências, o desenvolvimentismo e o impacto político da constituição dos estudos de área na África e no Sul Global, pós 2ª Guerra Mundial. Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Cláudio Costa Pinheiro</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>Daniele Meirelles Lambert.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10250,16 +10062,16 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Anna Clara Gonçalves.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10269,16 +10081,16 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Beatriz Gomes de Souza.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10287,16 +10099,16 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Daniel Pereira Aragão.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10306,16 +10118,16 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Gustavo Felicidade da Costa.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10324,16 +10136,16 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Luana Midmacher.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10342,6 +10154,21 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Deivid Valério Gaia</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Beatriz Ferreira Ponte. O neoclássico dos palacetes de Petrópolis: deuses nos tímpanos e platibandas. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -10349,11 +10176,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Beatriz Ferreira Ponte. O neoclássico dos palacetes de Petrópolis: deuses nos tímpanos e platibandas. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Rafael Pontual Souto Maior Tavares. Considerações sobre o martírio cristão da época antonina (séc. II d.C.). Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10195,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Rafael Pontual Souto Maior Tavares. Considerações sobre o martírio cristão da época antonina (séc. II d.C.). Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Renan Furtado de Luna. Economia e política entre Roma e Egito à época de Marco Antonio e Cleopatra. Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -10379,24 +10206,9 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>Renan Furtado de Luna. Economia e política entre Roma e Egito à época de Marco Antonio e Cleopatra. Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Deivid Valério Gaia</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>Filipe Ramos Cerqueira.
 						As relações entre alteridade e domínio: um estudo a partir da iconografia monetária..
@@ -10405,10 +10217,25 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Flávio dos Santos Gomes</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fellipe Vasconcellos. Fugas Escravas: Identidades e prosopografia, Rio de Janeiro, c. XIX. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Deivid Valério Gaia</t>
+          <t>Flávio dos Santos Gomes</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -10416,14 +10243,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FORMISANO, M. ;Gaia, Deivid Valério; SANTORO, F. . Organização do curso de extensão sobre História Antiga e problemas ambientais com Marco Formisano da Universidade de Gant - Belgica. 2022. (Outro).</t>
+          <t>Lenílson da Nóbrega. Escravidão Urbana. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fernando Luiz Vale Castro</t>
+          <t>Flávio dos Santos Gomes</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10431,128 +10258,50 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CASTRO, F. L. V.. Afinal-pele-foi-conivente-com-ditadura-militar. 2021.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>Ana Beatriz Lamego Viana. Cartografias da escravidão e da liberdade. Início: 2021. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fernando Luiz Vale Castro</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CASTRO, F. L. V.. Herdeiros de Chico Guanabara. 2021.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>Leonardo Rosendo Marques Mota. Atualização historiográfica sobre a Peste Negra (1348): os impactos comunitários da epidemia em regiões não europeias. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, CNPq-UFRJ. (Orientador).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fernando Luiz Vale Castro</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CASTRO, F. L. V.. A memória do Rei: Ciências Sociais devem manter pelé vivo, com releituras e pluralidades. 2023.
-							(Programa de rádio ou TV/Entrevista).</t>
+          <t>Giulia Vieira Fernandes dos Santos. O sofrimento durante a Peste Negra (1348): experiência, sofrimento e resiliência. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Flávio dos Santos Gomes</t>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>Fellipe Vasconcellos. Fugas Escravas: Identidades e prosopografia, Rio de Janeiro, c. XIX. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Flávio dos Santos Gomes</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Lenílson da Nóbrega. Escravidão Urbana. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Flávio dos Santos Gomes</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Ana Beatriz Lamego Viana. Cartografias da escravidão e da liberdade. Início: 2021. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Leonardo Rosendo Marques Mota. Atualização historiográfica sobre a Peste Negra (1348): os impactos comunitários da epidemia em regiões não europeias. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, CNPq-UFRJ. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Giulia Vieira Fernandes dos Santos. O sofrimento durante a Peste Negra (1348): experiência, sofrimento e resiliência. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>Suelen da Silva Sousa.
 						Atualização historiográfica sobre a Peste Negra (1348): os impactos comunitários da epidemia em regiões não europeias..
@@ -10562,16 +10311,16 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Suelen da Silva Sousa.
 						Atualização Historiográfica sobre s Segunda Pandemia da Peste (pós-2011): por uma história global da epidemia.
@@ -10581,16 +10330,16 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Luana Duarte de Freitas.
 						O sofrimento durante a Peste Negra (1348):  Uma História Social Das Emoções (a ira no Decameron de Giovanni Boccaccio).
@@ -10600,31 +10349,31 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Jhuly Anne de Paulo Valério. O ator como co-autor: a construção do personagem no romance moderno como matriz do trabalho de ator proposto por Constantin Stanislavski. Início: 2021. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Jéssica Matos de Oliveira.
 						?Comunidades emocionais? no Peru: comparação de narrativas das crônicas de ordens religiosas (sécs. XVI-XVII).
@@ -10634,107 +10383,91 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Joao Luis Ribeiro Fragoso</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ana Menandro Macahyba. A Nobreza da terra baiana nas escrituras da Cabeça política do Brasil: Salvador da Bahia, 1734-1742.. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Joao Luis Ribeiro Fragoso</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Monique da Silva Guimarães. A Nobreza da terra baiana nas escrituras da Cabeça política do Brasil: Salvador da Bahia, 1734-1742.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Yasmin de Rezende Muniz Reis. Atlas de Outros Mundos: Atualizando experiências. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Izabelly Ferreira Javarys. Atlas de Outros Mundos: Estabelecendo redes. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Julia Duarte Teixeira. Atlas de Outros Mundos: Sonhos, Experiências e Desejos em Resistência Climática.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Jorge Victor de Araújo Souza</t>
+          <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C35" t="inlineStr">
-        <is>
-          <t>CAMENIETZKI, C. Z. ; CARVALHO, D. P. O. ;SOUZA, J. V. A.. Perspectivas em História Moderna (Extensão). 2022; Tema:
-						Pesquisas atuais em História Moderna. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Ana Menandro Macahyba. A Nobreza da terra baiana nas escrituras da Cabeça política do Brasil: Salvador da Bahia, 1734-1742.. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Monique da Silva Guimarães. A Nobreza da terra baiana nas escrituras da Cabeça política do Brasil: Salvador da Bahia, 1734-1742.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Lise Fernanda Sedrez</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Yasmin de Rezende Muniz Reis. Atlas de Outros Mundos: Atualizando experiências. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Lise Fernanda Sedrez</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Izabelly Ferreira Javarys. Atlas de Outros Mundos: Estabelecendo redes. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Lise Fernanda Sedrez</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Julia Duarte Teixeira. Atlas de Outros Mundos: Sonhos, Experiências e Desejos em Resistência Climática.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Lise Fernanda Sedrez</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>Pedro Gomes Mariano.
 						Arqueologia e História Ambiental: Diálogos possíveis e existentes no contexto da Mata Atlântica.
@@ -10744,16 +10477,16 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Patrick Barros Benaion.
 						OCC! Novas respostas comunitárias aos desafios das mudanças climáticas,  um projeto interdisciplinar.
@@ -10763,16 +10496,16 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="B37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Julia Duarte Teixeira.
 						Estratégias Sócio-Ambientais: o Morro da Babilônia (OCC!).
@@ -10782,46 +10515,46 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B38" t="n">
         <v>2024</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Isabela Martins Gomes. O romance de formação em perspectiva histórica. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="B39" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>ANÁLIA LICKER SILVA DE MELO. O romance de formação em perspectiva histórica. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="B40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Felipe José Souza Fernandes da Silva.
 						História e Ficção: Literalidade da história e historicidade da literatura.
@@ -10831,16 +10564,16 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Lorena Pires Barros.
 						História e Ficção: Estudos sobre a literalidade da historiografia e a historicidade da literatura.
@@ -10849,16 +10582,16 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Giovana do Nascimento Bruno.
 						O romance de formação em perspectiva histórica.
@@ -10868,46 +10601,46 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Híkaro de Castro Dias Ferreira. Memórias da pandemia. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="B44" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>Rodrigo Maroja da Silva. Memórias da pandemia. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, UFRJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="B45" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>Vinicius Nobre Tardite.
 						.Construindo a Paz sobre Memórias de Guerra: El Salvador.
@@ -10917,16 +10650,16 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B46" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Adriana Silva Eugênio.
 						Estudo sobre o processo de paz na Colômbia.
@@ -10936,16 +10669,16 @@
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="B47" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Simone Pinto.
 						Lute como uma mãe: trajetória política de mães de vítimas de violência de estado no Rio de Janeiro.
@@ -10955,31 +10688,31 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C54" t="inlineStr">
+      <c r="B48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Lune Garcia de Souza Bezerra. Fontes para a História das Mulheres na Grécia Antiga. Início: 2022. Iniciação científica (Graduando em História)  - UFRJ Instituto de HistÃ³ria. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="B49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Talita Duarte.
 						Fontes para a História das Mulheres na Grécia Antiga.
@@ -10989,16 +10722,16 @@
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C56" t="inlineStr">
+      <c r="B50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Juliana Miranda Bello.
 						Historia e Historiografia da Antiguidade grega.
@@ -11007,139 +10740,91 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Marta Mega de Andrade</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. M.; ARAUJO, C. B. . Mulheres na Filosofia - Aspásia de Mileto. 2022.
-							(Programa de rádio ou TV/Entrevista).</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Marta Mega de Andrade</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>ANDRADE, MARTA MEGA DE; SANTOS, A. C. ; BATISTA, L C ; NEVES, D. . Despensando a polis. 2022; Tema:
-						História antiga grega para as redes sociais. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Marta Mega de Andrade</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>ANDRADE, M. M.. Aspásia de Mileto. 2022; Tema:
-						Blog Mulheres na Filosofia - participação especial. (Blog).</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="B51" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Vinicius Oliveira. O Julgamento de Eichmann e a repercussão na imprensa braisleira 1960/1963. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C61" t="inlineStr">
+      <c r="B52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Lucas Oliveira. Recepção do Julgamento de Eichmann no Brasil: projeto e perspectivas. Início: 2022. Iniciação científica (Graduando em História)  - Instituto de História, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C62" t="inlineStr">
+      <c r="B53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Beatriz dos Santos da Silva. Genocídio em questão: debate acerca da perspectiva da Abdias Nascimento e a realidade do negro no Brasil. Início: 2022. Iniciação científica (Graduando em História)  - Instituto de História da UFRJ, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B54" t="n">
         <v>2024</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Miguel Gryner de Moraes. Sindicalistas negros no Rio de Janeiro (1950-1970). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal Fluminense, Fundação Carlos Chagas Filho de Amparo à Pesquisa do Estado do RJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C64" t="inlineStr">
+      <c r="B55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Raquel da Silva Souza do Nascimento. Trabalhadores ferroviários em Cachoeira de Macacu, Rio de Janeiro (décadas de 1940 a 60). Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Coordenação de Aperfeiçoamento de Pessoal de Nível Superior. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B56" t="n">
         <v>2024</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Larissa de Oliveira Farias.
                             O ?Motim da Fome?: os impactos da greve geral de 1962 na Baixada Fluminense.
@@ -11149,16 +10834,16 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C66" t="inlineStr">
+      <c r="B57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Natália Gomes Almeida.
                             "Quando a fábrica fecha": Trabalho, território e desindustrialização em Bangu (décadas de 1960 e 70).
@@ -11168,31 +10853,31 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C67" t="inlineStr">
+      <c r="B58" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Victória Villa Forte Baudison. Senhoras egressas do cativeiro (Rio de Janeiro, século XVIII). Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal Rural do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C68" t="inlineStr">
+      <c r="B59" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>Jessica Siqueira dos Reis Costa.
 						Amores ilícitos e abandono: um estudo sobre as causas e consequências da exposição de crianças nos séculos XVIII e XIX.
@@ -11201,16 +10886,16 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C69" t="inlineStr">
+      <c r="B60" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Louhana Rosa Dias de Oliveira.
 						Crime, pecado e remissão: Um olhar através das Escrituras de Perdão do Rio de Janeiro setecentista.
@@ -11219,16 +10904,16 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C70" t="inlineStr">
+      <c r="B61" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Lucas de Almeida Nascimento.
 						Degredados em Moçambique (século XIX).
@@ -11237,16 +10922,16 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C71" t="inlineStr">
+      <c r="B62" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>JORDANA PEREIRA RODRIGUES.
 						Malakat?s y Siervos. Makatab y manumissíon Comparando fontes islâmicas e hispânicas sobre servidão e liberdade na Idade Média.
@@ -11256,46 +10941,46 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B63" t="n">
         <v>2024</v>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Gabriela Pitoco de Araujo da Silva. Em torno da boulangerie do barão d'Holbach: cultura impressa e radicalismo na França das Luzes. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B64" t="n">
         <v>2024</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Emanuelle da Conceição Tomaz. Mulheres desregradas: narrativas de crimes femininos dos dois lados do Canal da Mancha (França e Inglaterra, séculos XVI e XVII). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Fundação Carlos Chagas Filho de Amparo à Pesquisa do Estado do RJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B65" t="n">
         <v>2024</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Joaquim Guilherme de Camargo Mendes.
                             Em torno da boulangerie do barão d'Holbach: cultura impressa e radicalismo na França das Luzes.
@@ -11305,16 +10990,16 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B66" t="n">
         <v>2024</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Marina da Silva Pereira.
                             Dos espinhos aos castanheiros: Diderot e Filosofia Radical na cultura impressa do XVIII.
@@ -11324,16 +11009,16 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B76" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C76" t="inlineStr">
+      <c r="B67" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>Luisa Pádua Zanon.
                             Entre as possessões e o diabo: Cultura impressa e a representação do sobrenatural e dos possessos na Inglaterra Moderna.
@@ -11342,16 +11027,16 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C77" t="inlineStr">
+      <c r="B68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>Gabrielle Pacheco Noacco.
                             As representações de mulheres pecadoras na literatura de rua inglesa (séculos XVI e XVII).
@@ -11360,16 +11045,16 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C78" t="inlineStr">
+      <c r="B69" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>André Moreira.
                             Do deísmo ao ateísmo: a transição religiosa e filosófica de Denis Diderot (1745-1749).
@@ -11378,16 +11063,16 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B79" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C79" t="inlineStr">
+      <c r="B70" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Maria Júlia Viana.
                             ?The wife maliciously killeth her husband?: mulheres criminosas e suas representações na literatura de rua inglesa (XVI-XVII).
@@ -11396,16 +11081,16 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B80" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C80" t="inlineStr">
+      <c r="B71" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>Luísa Pádua Zanon.
                             Mulheres desregradas: narrativas de crimes femininos dos dois lados do canal da Mancha (França e Inglaterra, séculos XVI e XVII).
@@ -11414,16 +11099,16 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="B72" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>Gabrielle Pacheco Noacco.
                             Mulheres desregradas: narrativas de crimes femininos dos dois lados do canal da Mancha (França e Inglaterra, séculos XVI e XVII).
@@ -11432,106 +11117,106 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B73" t="n">
         <v>2024</v>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Fernanda Campanha. Ideologias, Representações e Humor: Democracia e Sociedade no Pasquim (1969-1989). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, PR1/UFRJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B74" t="n">
         <v>2024</v>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Katherine Kazumi. Ideologias, Representações e Humor: Democracia e Sociedade no Pasquim (1969-1989). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B75" t="n">
         <v>2024</v>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Caroline Ferreira Vilanova. Ideologias, Representações e Humor - Masculinidades no Pasquim. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B76" t="n">
         <v>2024</v>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Ana Clara Soares. Ideologias, Representações e Humor: Democracia e Sociedade no Pasquim (1969-1989). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C86" t="inlineStr">
+      <c r="B77" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>Mariana Lopez Arreguy. Ideologias, Representações e Humor: A Segunda Guerra Mundial e a Guerra Fria na Revista Careta (1939-1960). Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Fundação Carlos Chagas Filho de Amparo à Pesquisa do Estado do RJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C87" t="inlineStr">
+      <c r="B78" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>Camilla Gonzalez Medeiros da Fonseca. Ideologias, Representações e Humor: A Segunda Guerra Mundial e a Guerra Fria na Revista Careta (1939-1960). Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Fundação Carlos Chagas Filho de Amparo à Pesquisa do Estado do RJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B79" t="n">
         <v>2024</v>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Hevelynn Cristina Chaves.
 						Democracia em Tempos de Guerra Fria - Maquiavelismo em Raymond Aron.
@@ -11541,16 +11226,16 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B80" t="n">
         <v>2024</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Caroline Ferreira Vilanova.
 						Democracia em Tempos de Guerra Fria - Hannah Arendt e a Banalidade do Mal.
@@ -11560,16 +11245,16 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C90" t="inlineStr">
+      <c r="B81" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>Anna Carolina Ventura.
 						Comunismo e Fascismo nas Páginas da Punch - uma análise documentária do Humor Inglês.
@@ -11579,16 +11264,16 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B91" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C91" t="inlineStr">
+      <c r="B82" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>Maria Eduarda Fontes da Costa e Silva Merz.
 						Comunismo e Fascismo nas Páginas da Punch - uma análise documentária do Humor Inglês.
@@ -11598,16 +11283,16 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B92" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C92" t="inlineStr">
+      <c r="B83" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>Rayssa Silva Vieira.
 						Democracia em Tempos de Guerra Fria: Modernidade em Raymond Aron.
@@ -11617,16 +11302,16 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B93" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C93" t="inlineStr">
+      <c r="B84" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>Pedro Cantarino Rezende.
 						Democracia em Tempos de Guerra Fria: Esfera Pública em Hannah Arendt.
@@ -11636,16 +11321,16 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B94" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C94" t="inlineStr">
+      <c r="B85" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>Bruno Wandermurem de Oliveira Medeiros.
 						Democracia em Tempos de Guerra Fria: Verdade e Cultura em Hannah Arendt.
@@ -11654,46 +11339,46 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B95" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C95" t="inlineStr">
+      <c r="B86" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>Giovana Farias. Blockade Runners Confederados na Costa Brasileira. Início: 2022. Iniciação científica (Graduando em História - Licenciatura Ou Bacharelado)  - Universidade Federal Rural do Rio de Janeiro, CERDIA BRASIL INDUSTRIA E COMERCIO LTDA. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B96" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C96" t="inlineStr">
+      <c r="B87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>Beatriz Alves. James Watson Webb: um diplomata na Era da Emancipação e da Construção de Estados, 1861-1869.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B97" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C97" t="inlineStr">
+      <c r="B88" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>Pedro Arreguy.
 						A Questão Christie..
@@ -11703,31 +11388,31 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B89" t="n">
         <v>2024</v>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Ana de Ávila Gitahy. Processos de divórcio na diocese do Rio de Janeiro (c. 1808-1830). Início: 2024. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B99" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C99" t="inlineStr">
+      <c r="B90" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>Maria Eduarda Macedo dos Santos. Processos de divórcio na Diocese do Rio de Janeiro (c. 1808-1830). Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
@@ -14419,7 +14104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16485,29 +16170,13 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Michel Gherman</t>
+          <t>Monica Grin</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C115" t="inlineStr">
-        <is>
-          <t>GHERMAN, MICHEL; ROCHA, M. F. ; RIBAS, A. . Canall do Michel Gherman. 2022; Tema:
-						Debates sobre Politica nacional e internacional. (Rede social).</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Monica Grin</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>Rodrigo Brum.
 						A atitude de Rosa Parks e seu impacto na imprensa do Alabama (1955).
@@ -16516,16 +16185,16 @@
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C117" t="inlineStr">
+      <c r="B116" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>Priscilla Santos Nunes.
 						O papel do Estado brasileiro na extradição de Olga Benario Prestes.
@@ -16534,16 +16203,16 @@
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B118" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C118" t="inlineStr">
+      <c r="B117" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>José Ricardo Andrade.
 						RACISMO E INVISIBILIDADE DO POVO NEGRO NAS NOVAS ARENAS DO FUTEBOL BRASILEIRO.
@@ -16552,16 +16221,16 @@
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C119" t="inlineStr">
+      <c r="B118" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>Leticia Fernandes Cabral.
 						O Cemitério de Pretos Novos e a historiografia: silenciamentos e abordagens sobre o campo santo.
@@ -16570,16 +16239,16 @@
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C120" t="inlineStr">
+      <c r="B119" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>Igor Bruno Dias.
 						Raízes, folhas e gotas de liberdade: Práticas de envenenamento por escravizados contra senhores, nas Províncias de Rio de janeiro e São Paulo (1850 ? 1888).
@@ -16588,16 +16257,16 @@
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C121" t="inlineStr">
+      <c r="B120" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>Yuri das Virgens Miranda.
 						Movimentos sociais na Primeira República: como o samba canta e encanta a História do Brasil.
@@ -16606,16 +16275,16 @@
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C122" t="inlineStr">
+      <c r="B121" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>Douglas Pereira Diniz.
 						Entre o Medo, a Fuga e o Destino: uma análise sobre as representações das masculinidades afro-americanas no romance Native Son (1940).
@@ -16624,16 +16293,16 @@
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B123" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C123" t="inlineStr">
+      <c r="B122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>Bruno Camenietzki Amorim.
 						Toca zabumba que o Rio é nosso: o Afoxé Filhos de Gandhi do Rio de Janeiro e sua atuação política, lúdica e religiosa entre 2017 e 2018 sob as lentes de um documentário.
@@ -16642,16 +16311,16 @@
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B123" t="n">
         <v>2024</v>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Isadora Novaes dos Santos Bohrer.
 						A longa trajetória do Saara Ocidental e o projeto de ocupação marroquina: passado e presente marcado por invasões.
@@ -16660,16 +16329,16 @@
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C125" t="inlineStr">
+      <c r="B124" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C124" t="inlineStr">
         <is>
           <t>Marcelle Maia Ribeiro de Queiroz.
 						A guerra ao Terror como veículo para ascensão da Islamofobia: uma análise acerca da construção da identidade islâmica.
@@ -16678,16 +16347,16 @@
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C126" t="inlineStr">
+      <c r="B125" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>Luiza de Paschoal Mohamed.
 						A Grande Viagem: a Rihla de Ibn Battuta (1304-1377) no Egito mameluco e a importância do conhecimento no mundo islâmico.
@@ -16696,16 +16365,16 @@
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C127" t="inlineStr">
+      <c r="B126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>Juliana Carvalho da Silva.
 						O papel e o alcance do poder feminino no Candomblé brasileiro: a figura emblemática de Mãe Stella de Oxossi.
@@ -16714,16 +16383,16 @@
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C128" t="inlineStr">
+      <c r="B127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>Lohanna Rodrigues Reis.
 						O Neo-otomanismo turco no governo Erdogan e sua influência no Oriente Médio e no mundo islâmico.
@@ -16732,16 +16401,16 @@
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C129" t="inlineStr">
+      <c r="B128" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>Raphael Pena de Almeida.
 						A reconstrução da Rússia e a construção do socialismo: a solidez da economia soviética frente a crise de 1929.
@@ -16750,31 +16419,16 @@
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Murilo Sebe Bon Meihy</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>MEIHY, M. S. B.; BRANCO, J. F. C. . Calculadora de Índice de Propensão a Conflito (IPC) - FAPERJ. 2022.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>Nuno Carlos de Fragoso Vidal</t>
         </is>
       </c>
-      <c r="B131" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C131" t="inlineStr">
+      <c r="B129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>Nagela de Lourdes Pinto de Sousa.
 						O Impacto Geopolítico dos Investimentos da China na África: como a cooperação internacional influencia no acúmulo de poder da China.
@@ -16783,16 +16437,16 @@
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
         <is>
           <t>Nuno Carlos de Fragoso Vidal</t>
         </is>
       </c>
-      <c r="B132" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C132" t="inlineStr">
+      <c r="B130" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C130" t="inlineStr">
         <is>
           <t>Vinicius Camuru Ruas.
 						QUARENTA ANOS DE MÉDICOS SEM FRONTEIRAS NA REPÚBLICA DEMOCRÁTICA DO CONGO: ajuda humanitária de emergência e ajuda humanitária de impacto a longo prazo?.
@@ -16801,16 +16455,16 @@
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B131" t="n">
         <v>2024</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Mariana Alves.
                             Trabalhadores da Behring: perfil social e étnico na Primeira República.
@@ -16819,16 +16473,16 @@
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B132" t="n">
         <v>2024</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Anna Luiza Silveira Ramos Fernandes.
                             ?Juntas descobrimos coisas que já sabíamos?: gênero, classe e o Movimento de Mulheres Trabalhadoras Rurais do Sertão Central de Pernambuco (1982-1988).
@@ -16837,16 +16491,16 @@
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B133" t="n">
         <v>2024</v>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Juliana Mendes da Silva.
                             Os trabalhadores de estiva: A vida dos trabalhadores no Porto do Rio no início do século XX sob o olhar de João do Rio.
@@ -16855,16 +16509,16 @@
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C136" t="inlineStr">
+      <c r="B134" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C134" t="inlineStr">
         <is>
           <t>Phillip Mazza Guimarães.
                             A um clique da verdade: memórias subterrâneas, regime militar e novas direitas.
@@ -16873,16 +16527,16 @@
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B137" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C137" t="inlineStr">
+      <c r="B135" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C135" t="inlineStr">
         <is>
           <t>Yan Melo de Almeida.
                             Ministro sem pasta do futebol brasileiro: Mário Filho e a ?Batalha pelo Estádio? (1947).
@@ -16891,16 +16545,16 @@
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C138" t="inlineStr">
+      <c r="B136" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>Jhulye dos Santos Passarelo.
                             ?O Petróleo ainda é nosso??: A participação dos petroleiros do Rio de Janeiro nas mobilizações de 1987 e 1988 e a questão petrolífera na conjuntura política nacional.
@@ -16909,16 +16563,16 @@
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C139" t="inlineStr">
+      <c r="B137" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>Mateus Medrado.
                             Navegando contra a crise: bloco no poder, trabalho e sobredeterminação na reconstrução da Indústria Naval Fluminense (1995-2002).
@@ -16927,16 +16581,16 @@
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C140" t="inlineStr">
+      <c r="B138" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>Thompson Clímaco Alves.
                             Entre lavouras e fábricas: trabalhadores e industrialização no município de Barra Mansa (1920-1930).
@@ -16945,16 +16599,16 @@
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C141" t="inlineStr">
+      <c r="B139" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>Antonio Daniel Corria de Araújo.
                             Uma Aspiração Secular: da idealização da ponte Rio-Niterói a sua construção pelos trabalhadores (1968-1974).
@@ -16963,16 +16617,16 @@
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B142" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C142" t="inlineStr">
+      <c r="B140" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>Everton Adriano Silva.
                             A copa e a cozinha em luta: a greve dos empregados hoteleiros do Rio de Janeiro (1953).
@@ -16981,16 +16635,16 @@
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B143" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C143" t="inlineStr">
+      <c r="B141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>Felipe Annunziata.
                             Do abolicionismo ao socialismo: a trajetória de Luiz da França e Silva e da revista Typographica.
@@ -16999,16 +16653,16 @@
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="B142" t="n">
         <v>2024</v>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Jean Pedro Silva de Sousa.
 						Da liberdade à frustração: o governo estadual de José Sarney no Maranhão entre 1965-1969.
@@ -17017,16 +16671,16 @@
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B143" t="n">
         <v>2024</v>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Jorge Luiz Pacheco.
 						Industriais e o pré-golpe empresarial-militar de 1964: ações e manifestações no CIRJ e na FIRJAN.
@@ -17035,16 +16689,16 @@
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C146" t="inlineStr">
+      <c r="B144" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>Pedro Henrique Corrêa Jacob.
 						Rogai por nós pecadores: a trajetória do cristianismo da libertação no Chile revolucionário.
@@ -17053,16 +16707,16 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C147" t="inlineStr">
+      <c r="B145" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>João Pedro Teixeira Ferreira Thimoteo.
 						O Partido dos Trabalhadores aos olhos da ditadura: contrarrevolução e luta de massas na transição à democracia restrita (1979-1988).
@@ -17071,16 +16725,16 @@
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C148" t="inlineStr">
+      <c r="B146" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>Ingrid Ribeiro Santos Araujo.
 						ALVO ESTUDANTIL: A repressão contra o Movimento de Ocupações das escolas paulistas em 2015.
@@ -17089,16 +16743,16 @@
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B149" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C149" t="inlineStr">
+      <c r="B147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>Sofia Magalhães Gonçalves.
 						As relações entre o desenvolvimento do capitalismo e o processo de favelização no Rio de Janeiro (1893-1907).
@@ -17107,16 +16761,16 @@
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C150" t="inlineStr">
+      <c r="B148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>Marcus Vinícius Nunes Medina.
 						Guerra do Paraguai: da senzala para o front, a guerra como alforria.
@@ -17125,16 +16779,16 @@
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B151" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C151" t="inlineStr">
+      <c r="B149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>Renata Figueiredo do Vale.
 						A violência urbana no Rio de Janeiro segundo o jornal Movimento.
@@ -17143,16 +16797,16 @@
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C152" t="inlineStr">
+      <c r="B150" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>JORDANA PEREIRA RODRIGUES.
 						Malakat?s y Siervos. Makatab y manumissíon Comparando fontes islâmicas e hispânicas sobre servidão e liberdade na Idade Média.
@@ -17162,16 +16816,16 @@
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B153" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C153" t="inlineStr">
+      <c r="B151" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t>Louhana Rosa Dias de Oliveira.
 						Crime, pecado e remissão: Um olhar através das Escrituras de Perdão do Rio de Janeiro setecentista.
@@ -17180,16 +16834,16 @@
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C154" t="inlineStr">
+      <c r="B152" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>Lucas Almeida.
 						Degredados em Moçambique (século XIX).
@@ -17198,16 +16852,16 @@
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C155" t="inlineStr">
+      <c r="B153" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>Daniel Soares Lopes Morais.
 						A composição social da Santa Casa de Misericória (Rio de Janeiro,1700-1800).
@@ -17216,16 +16870,16 @@
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B156" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C156" t="inlineStr">
+      <c r="B154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>Giovana Souza Guimarães do Nascimento.
                             La Piú illustre ed eccellente matrona: Isabella d?Este e o poder pela arte do Renascimento italiano.
@@ -17234,16 +16888,16 @@
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B155" t="n">
         <v>2024</v>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Rayssa Silva Vieira.
 						Totalitarismo em debate: as perspectivas do conceito em Arendt e Aron (1951-1965).
@@ -17252,16 +16906,16 @@
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B156" t="n">
         <v>2024</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Breno Ventura Barbosa.
 						O Debate dos anos 1920: a capitulação da teoria da Revolução Permanente no Partido Bolchevique (1923-1926).
@@ -17270,16 +16924,16 @@
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B157" t="n">
         <v>2024</v>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Isabel Christimann de Miranda.
 						Representações do Totalitarismo em Jogos Vorazes e as distopias como ferramenta de análise para a violência.
@@ -17288,16 +16942,16 @@
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B158" t="n">
         <v>2024</v>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Pedro Cantarino Rezende.
 						?A política morreu, viva a política?: Uma análise dos sentidos da ação política e da democracia na plataforma política de Herbert Daniel (1986).
@@ -17306,16 +16960,16 @@
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B161" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C161" t="inlineStr">
+      <c r="B159" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>Murilo Rosa Garcias.
 						Um Judeu Maçom na Pregação Protestante: A trajetória de Salomão Guinsburg no Norte Fluminense (1890-1899).
@@ -17324,16 +16978,16 @@
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B162" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C162" t="inlineStr">
+      <c r="B160" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>Eduardo Dias Campanelli.
 						A Estratégia discursiva sobre Memória na Graphic Novel Maus.
@@ -17342,16 +16996,16 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B163" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C163" t="inlineStr">
+      <c r="B161" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>Rodrigo Habl.
 						Da Infância à Primeira Guerra: a formação de Hitler nas biografias de Joachim Fest e Ian Kershaw.
@@ -17360,16 +17014,16 @@
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C164" t="inlineStr">
+      <c r="B162" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>Leonardo Gonçalves da Costa.
 						Trabalhadores de todos os países e povos oprimidos de todo o mundo: uni-vos! O Congresso dos povos do Oriente (1920) e a luta anticolonial.
@@ -17378,16 +17032,16 @@
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C165" t="inlineStr">
+      <c r="B163" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>Maria Eduarda Fontes da Costa e Silva Merz.
 						Gênero e Humor: As Representações do Feminino nas Capas da Revista Simplicissimus (1933-1939).
@@ -17396,16 +17050,16 @@
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B166" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C166" t="inlineStr">
+      <c r="B164" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>Harel Salim.
 						A nova direita e sua consolidação por meio de uma comunidade de sentido nas mídias sociais: análise do caso brasileiro.
@@ -17414,16 +17068,16 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C167" t="inlineStr">
+      <c r="B165" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>Ana Beatriz Ferreira Marques.
 						Representações da Revolução no Filme Outubro, de Eisenstein.
@@ -17432,16 +17086,16 @@
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B168" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C168" t="inlineStr">
+      <c r="B166" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>Lorrany Lima Alves da Costa.
 						'Shoah' - Uma análise sobre a necessidade da memória no debate público acerca do Holocausto.
@@ -17450,16 +17104,16 @@
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B169" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C169" t="inlineStr">
+      <c r="B167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>Bruno Wandermurem de Oliveira Medeiros.
 						Negacionismo gráfico: Israel e o Holocausto nos concursos de charges no Irã  (2006 e 2016).
@@ -17468,16 +17122,16 @@
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B168" t="n">
         <v>2024</v>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Lizandra da Silva Rodrigues.
 						A arte da política: a ação da rainha Catarina de Portugal na representação visual do poder da dinastia de Avis.
@@ -17486,16 +17140,16 @@
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C171" t="inlineStr">
+      <c r="B169" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>Milene dos Santos Ribeiro.
 						Da bestialidade ao súdito: o ensino jesuítico como dispositivo de manutenção de poder e organização social luso-brasileiro na Bahia (1549-1560).
@@ -17504,16 +17158,16 @@
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B172" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C172" t="inlineStr">
+      <c r="B170" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C170" t="inlineStr">
         <is>
           <t>Mariana Barrozo Gonzalez.
 						O comportamento esperado e a prática realizada: casamento e divórcio no Rio de Janeiro no século XIX (1808-1831).
@@ -17523,16 +17177,16 @@
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B173" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C173" t="inlineStr">
+      <c r="B171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C171" t="inlineStr">
         <is>
           <t>Andrey Damico Adorno Soares.
 						DAS PROMESSAS DE CASAMENTO AO ÓDIO CAPITAL: AS REPRESENTAÇÕES DE GÊNERO NAS AÇÕES DE DIVÓRCIO DO TRIBUNAL ECLESIÁSTICO DO RIO DE JANEIRO (1808-1823).
@@ -17542,16 +17196,16 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C174" t="inlineStr">
+      <c r="B172" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C172" t="inlineStr">
         <is>
           <t>Júlio Chaves Seixas.
 						REPRESENTAÇÕES DA HONRA E HONESTIDADE FEMININA E DA VIOLÊNCIA MASCULINA NOS LIBELOS DE DIVÓRCIO DO INÍCIO DO SÉCULO XIX NO RIO DE JANEIRO.
@@ -17561,16 +17215,16 @@
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B175" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C175" t="inlineStr">
+      <c r="B173" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>Beatriz Martins de Andrade.
 						As plurais maternidades no Rio de Janeiro do século XIX.
@@ -17579,16 +17233,16 @@
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B176" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C176" t="inlineStr">
+      <c r="B174" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>Ariana Costa dos Santos.
 						Maria Joaquina da Costa Botelho de Magalhães: a matriarca da família Botelho Magalhães sob a ótica de correspondências entre 1863 e 1921.

--- a/data/orientações.xlsx
+++ b/data/orientações.xlsx
@@ -2971,7 +2971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3018,13 +3018,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Andrea Daher</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DAHER, Andrea. A pequena grande história de Giovanni Levi. 2021. Filme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Beatriz Weisheimer de Mendonça.
 						O ?governo da casa?: Economia costumeira no Rio de Janeiro setecentista.
@@ -3034,16 +3049,16 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Joaquim Guilherme Camargo Mendes.
 						Os ourives e sua atuação na cidade do Rio de Janeiro no século XVIII.
@@ -3053,16 +3068,16 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Gustavo Saraiva Soares.
 						Os ourives e suas associações na Bahia do século XVIII.
@@ -3072,16 +3087,16 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Lucas Domingues Torres do Nascimento.
 						Celebrações no Bispado do Rio de Janeiro do século XVIII.
@@ -3091,16 +3106,16 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Daniele Meirelles Lambert.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3110,16 +3125,16 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Anna Clara Gonçalves.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3129,16 +3144,16 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Beatriz Gomes de Souza.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3147,16 +3162,16 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Daniel Pereira Aragão.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3166,16 +3181,16 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Gustavo Felicidade da Costa.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3184,16 +3199,16 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Luana Midmacher.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -3202,16 +3217,16 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Deivid Valério Gaia</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B14" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Filipe Ramos Cerqueira.
 						As relações entre alteridade e domínio: um estudo a partir da iconografia monetária..
@@ -3220,16 +3235,79 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Deivid Valério Gaia</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FORMISANO, M. ;Gaia, Deivid Valério; SANTORO, F. . Organização do curso de extensão sobre História Antiga e problemas ambientais com Marco Formisano da Universidade de Gant - Belgica. 2022. (Outro).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fernando Luiz Vale Castro</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CASTRO, F. L. V.. Afinal-pele-foi-conivente-com-ditadura-militar. 2021.
+							(Programa de rádio ou TV/Entrevista).</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fernando Luiz Vale Castro</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CASTRO, F. L. V.. Herdeiros de Chico Guanabara. 2021.
+							(Programa de rádio ou TV/Entrevista).</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fernando Luiz Vale Castro</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CASTRO, F. L. V.. A memória do Rei: Ciências Sociais devem manter pelé vivo, com releituras e pluralidades. 2023.
+							(Programa de rádio ou TV/Entrevista).</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B19" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>Suelen da Silva Sousa.
 						Atualização historiográfica sobre a Peste Negra (1348): os impactos comunitários da epidemia em regiões não europeias..
@@ -3239,16 +3317,16 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Suelen da Silva Sousa.
 						Atualização Historiográfica sobre s Segunda Pandemia da Peste (pós-2011): por uma história global da epidemia.
@@ -3258,16 +3336,16 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B21" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Luana Duarte de Freitas.
 						O sofrimento durante a Peste Negra (1348):  Uma História Social Das Emoções (a ira no Decameron de Giovanni Boccaccio).
@@ -3277,16 +3355,16 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>Jéssica Matos de Oliveira.
 						?Comunidades emocionais? no Peru: comparação de narrativas das crônicas de ordens religiosas (sécs. XVI-XVII).
@@ -3296,16 +3374,32 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jorge Victor de Araújo Souza</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CAMENIETZKI, C. Z. ; CARVALHO, D. P. O. ;SOUZA, J. V. A.. Perspectivas em História Moderna (Extensão). 2022; Tema:
+						Pesquisas atuais em História Moderna. (Rede social).</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B24" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>Pedro Gomes Mariano.
 						Arqueologia e História Ambiental: Diálogos possíveis e existentes no contexto da Mata Atlântica.
@@ -3315,16 +3409,16 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Patrick Barros Benaion.
 						OCC! Novas respostas comunitárias aos desafios das mudanças climáticas,  um projeto interdisciplinar.
@@ -3334,16 +3428,16 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>Julia Duarte Teixeira.
 						Estratégias Sócio-Ambientais: o Morro da Babilônia (OCC!).
@@ -3353,16 +3447,16 @@
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Felipe José Souza Fernandes da Silva.
 						História e Ficção: Literalidade da história e historicidade da literatura.
@@ -3372,16 +3466,16 @@
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Lorena Pires Barros.
 						História e Ficção: Estudos sobre a literalidade da historiografia e a historicidade da literatura.
@@ -3390,16 +3484,16 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>Giovana do Nascimento Bruno.
 						O romance de formação em perspectiva histórica.
@@ -3409,16 +3503,16 @@
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Vinicius Nobre Tardite.
 						.Construindo a Paz sobre Memórias de Guerra: El Salvador.
@@ -3428,16 +3522,16 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Adriana Silva Eugênio.
 						Estudo sobre o processo de paz na Colômbia.
@@ -3447,16 +3541,16 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B32" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Simone Pinto.
 						Lute como uma mãe: trajetória política de mães de vítimas de violência de estado no Rio de Janeiro.
@@ -3466,16 +3560,16 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B33" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Talita Duarte.
 						Fontes para a História das Mulheres na Grécia Antiga.
@@ -3485,16 +3579,16 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Juliana Miranda Bello.
 						Historia e Historiografia da Antiguidade grega.
@@ -3503,16 +3597,64 @@
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Marta Mega de Andrade</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ANDRADE, M. M.; ARAUJO, C. B. . Mulheres na Filosofia - Aspásia de Mileto. 2022.
+							(Programa de rádio ou TV/Entrevista).</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Marta Mega de Andrade</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ANDRADE, MARTA MEGA DE; SANTOS, A. C. ; BATISTA, L C ; NEVES, D. . Despensando a polis. 2022; Tema:
+						História antiga grega para as redes sociais. (Rede social).</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Marta Mega de Andrade</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ANDRADE, M. M.. Aspásia de Mileto. 2022; Tema:
+						Blog Mulheres na Filosofia - participação especial. (Blog).</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Nuno Carlos de Fragoso Vidal</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B38" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Felipe Adão Moreira Nóbrega de Andrade.
 						Democratização e Integridade Eleitoral em Angola e Moçambique.
@@ -3522,16 +3664,16 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>2024</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Larissa de Oliveira Farias.
                             O ?Motim da Fome?: os impactos da greve geral de 1962 na Baixada Fluminense.
@@ -3541,16 +3683,16 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>Natália Gomes Almeida.
                             "Quando a fábrica fecha": Trabalho, território e desindustrialização em Bangu (décadas de 1960 e 70).
@@ -3560,16 +3702,16 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B41" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Jessica Siqueira dos Reis Costa.
 						Amores ilícitos e abandono: um estudo sobre as causas e consequências da exposição de crianças nos séculos XVIII e XIX.
@@ -3578,16 +3720,16 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B42" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Louhana Rosa Dias de Oliveira.
 						Crime, pecado e remissão: Um olhar através das Escrituras de Perdão do Rio de Janeiro setecentista.
@@ -3596,16 +3738,16 @@
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B43" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Lucas de Almeida Nascimento.
 						Degredados em Moçambique (século XIX).
@@ -3614,16 +3756,16 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B44" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>JORDANA PEREIRA RODRIGUES.
 						Malakat?s y Siervos. Makatab y manumissíon Comparando fontes islâmicas e hispânicas sobre servidão e liberdade na Idade Média.
@@ -3633,16 +3775,16 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B45" t="n">
         <v>2024</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Joaquim Guilherme de Camargo Mendes.
                             Em torno da boulangerie do barão d'Holbach: cultura impressa e radicalismo na França das Luzes.
@@ -3652,16 +3794,16 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B46" t="n">
         <v>2024</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Marina da Silva Pereira.
                             Dos espinhos aos castanheiros: Diderot e Filosofia Radical na cultura impressa do XVIII.
@@ -3671,16 +3813,16 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Luisa Pádua Zanon.
                             Entre as possessões e o diabo: Cultura impressa e a representação do sobrenatural e dos possessos na Inglaterra Moderna.
@@ -3689,16 +3831,16 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Gabrielle Pacheco Noacco.
                             As representações de mulheres pecadoras na literatura de rua inglesa (séculos XVI e XVII).
@@ -3707,16 +3849,16 @@
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B49" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>André Moreira.
                             Do deísmo ao ateísmo: a transição religiosa e filosófica de Denis Diderot (1745-1749).
@@ -3725,16 +3867,16 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B50" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Maria Júlia Viana.
                             ?The wife maliciously killeth her husband?: mulheres criminosas e suas representações na literatura de rua inglesa (XVI-XVII).
@@ -3743,16 +3885,16 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Luísa Pádua Zanon.
                             Mulheres desregradas: narrativas de crimes femininos dos dois lados do canal da Mancha (França e Inglaterra, séculos XVI e XVII).
@@ -3761,16 +3903,16 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="B52" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Gabrielle Pacheco Noacco.
                             Mulheres desregradas: narrativas de crimes femininos dos dois lados do canal da Mancha (França e Inglaterra, séculos XVI e XVII).
@@ -3779,16 +3921,16 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B53" t="n">
         <v>2024</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Hevelynn Cristina Chaves.
 						Democracia em Tempos de Guerra Fria - Maquiavelismo em Raymond Aron.
@@ -3798,16 +3940,16 @@
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B54" t="n">
         <v>2024</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Caroline Ferreira Vilanova.
 						Democracia em Tempos de Guerra Fria - Hannah Arendt e a Banalidade do Mal.
@@ -3817,16 +3959,16 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="B55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Anna Carolina Ventura.
 						Comunismo e Fascismo nas Páginas da Punch - uma análise documentária do Humor Inglês.
@@ -3836,16 +3978,16 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Maria Eduarda Fontes da Costa e Silva Merz.
 						Comunismo e Fascismo nas Páginas da Punch - uma análise documentária do Humor Inglês.
@@ -3855,16 +3997,16 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>Rayssa Silva Vieira.
 						Democracia em Tempos de Guerra Fria: Modernidade em Raymond Aron.
@@ -3874,16 +4016,16 @@
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B58" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>Pedro Cantarino Rezende.
 						Democracia em Tempos de Guerra Fria: Esfera Pública em Hannah Arendt.
@@ -3893,16 +4035,16 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="B59" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>Bruno Wandermurem de Oliveira Medeiros.
 						Democracia em Tempos de Guerra Fria: Verdade e Cultura em Hannah Arendt.
@@ -3911,16 +4053,16 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="B60" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Pedro Arreguy.
 						A Questão Christie..
@@ -6120,7 +6262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:C214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8470,77 +8612,93 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>Michel Gherman</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>GHERMAN, MICHEL; ROCHA, M. F. ; RIBAS, A. . Canall do Michel Gherman. 2022; Tema:
+						Debates sobre Politica nacional e internacional. (Rede social).</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B134" t="n">
         <v>2024</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Gabriel Richard Barbosa. Ressentimento: um sentimento moral, muitas controvérsias.
 					Início: 2024. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B135" t="n">
         <v>2024</v>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Cristal de Macedo de Oliveira Rosa. Senhoritas em uniforme: lesbianidade na República de Weimar (1931).
 					Início: 2024. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B135" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C135" t="inlineStr">
+      <c r="B136" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>Lúcio Neves Bairral Dias. O papel do jornal O Globo no fomento do anticomunismo e do antipetismo nos golpes de 1964 e 2016.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - UNIRIO/CEDERJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C136" t="inlineStr">
+      <c r="B137" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>Igor Cassal de Medeiros. Guerreei na juventude, fiz por voce o que pude, Mangueira: A Mangueira e a unidade de Polícia Pacificadora.
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Instituto de História da UFRJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B137" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C137" t="inlineStr">
+      <c r="B138" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>Rodrigo Brum.
 						A atitude de Rosa Parks e seu impacto na imprensa do Alabama (1955).
@@ -8549,16 +8707,16 @@
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C138" t="inlineStr">
+      <c r="B139" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>Priscilla Santos Nunes.
 						O papel do Estado brasileiro na extradição de Olga Benario Prestes.
@@ -8567,16 +8725,16 @@
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C139" t="inlineStr">
+      <c r="B140" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>José Ricardo Andrade.
 						RACISMO E INVISIBILIDADE DO POVO NEGRO NAS NOVAS ARENAS DO FUTEBOL BRASILEIRO.
@@ -8585,64 +8743,64 @@
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C140" t="inlineStr">
+      <c r="B141" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>Eduardo Batista de Souza. ?Se a rádio patrulha chegasse aqui agora, seria uma grande vitória. Ninguém poderia correr??: As denúncias, anúncios e perseguições policiais feitas aos terreiros de umbanda(s) no Rio de Janeiro (1955-1959).
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C141" t="inlineStr">
+      <c r="B142" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>Izabel do Nascimento Gonçalves. O comércio interprovincial de escravizados: ligações entre as províncias do Norte e o porto do Rio de Janeiro na década de 1870.
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B142" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C142" t="inlineStr">
+      <c r="B143" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>Julia Cristina Provenzano. Imagem dos escravizados como ingratos e vingativos na literatura brasileira do século XIX.
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B143" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C143" t="inlineStr">
+      <c r="B144" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C144" t="inlineStr">
         <is>
           <t>Leticia Fernandes Cabral.
 						O Cemitério de Pretos Novos e a historiografia: silenciamentos e abordagens sobre o campo santo.
@@ -8651,16 +8809,16 @@
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C144" t="inlineStr">
+      <c r="B145" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C145" t="inlineStr">
         <is>
           <t>Igor Bruno Dias.
 						Raízes, folhas e gotas de liberdade: Práticas de envenenamento por escravizados contra senhores, nas Províncias de Rio de janeiro e São Paulo (1850 ? 1888).
@@ -8669,16 +8827,16 @@
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B145" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C145" t="inlineStr">
+      <c r="B146" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>Yuri das Virgens Miranda.
 						Movimentos sociais na Primeira República: como o samba canta e encanta a História do Brasil.
@@ -8687,16 +8845,16 @@
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C146" t="inlineStr">
+      <c r="B147" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>Douglas Pereira Diniz.
 						Entre o Medo, a Fuga e o Destino: uma análise sobre as representações das masculinidades afro-americanas no romance Native Son (1940).
@@ -8705,16 +8863,16 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C147" t="inlineStr">
+      <c r="B148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>Bruno Camenietzki Amorim.
 						Toca zabumba que o Rio é nosso: o Afoxé Filhos de Gandhi do Rio de Janeiro e sua atuação política, lúdica e religiosa entre 2017 e 2018 sob as lentes de um documentário.
@@ -8723,64 +8881,64 @@
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B149" t="n">
         <v>2024</v>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Michael Sousa de Barros. Os conceitos de trabalho e luta de classes no Manifesto do Partido Comunista de 1848.
 					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B149" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C149" t="inlineStr">
+      <c r="B150" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>Maria Flávia dos Reis. A Palestina de Joe Sacco.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C150" t="inlineStr">
+      <c r="B151" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t>Rafane Nunes. História da dança oriental: séculos XIX e XX.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B152" t="n">
         <v>2024</v>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>Isadora Novaes dos Santos Bohrer.
 						A longa trajetória do Saara Ocidental e o projeto de ocupação marroquina: passado e presente marcado por invasões.
@@ -8789,16 +8947,16 @@
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C152" t="inlineStr">
+      <c r="B153" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>Marcelle Maia Ribeiro de Queiroz.
 						A guerra ao Terror como veículo para ascensão da Islamofobia: uma análise acerca da construção da identidade islâmica.
@@ -8807,16 +8965,16 @@
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B153" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C153" t="inlineStr">
+      <c r="B154" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>Luiza de Paschoal Mohamed.
 						A Grande Viagem: a Rihla de Ibn Battuta (1304-1377) no Egito mameluco e a importância do conhecimento no mundo islâmico.
@@ -8825,16 +8983,16 @@
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C154" t="inlineStr">
+      <c r="B155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>Juliana Carvalho da Silva.
 						O papel e o alcance do poder feminino no Candomblé brasileiro: a figura emblemática de Mãe Stella de Oxossi.
@@ -8843,16 +9001,16 @@
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B155" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C155" t="inlineStr">
+      <c r="B156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>Lohanna Rodrigues Reis.
 						O Neo-otomanismo turco no governo Erdogan e sua influência no Oriente Médio e no mundo islâmico.
@@ -8861,16 +9019,16 @@
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B156" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C156" t="inlineStr">
+      <c r="B157" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C157" t="inlineStr">
         <is>
           <t>Raphael Pena de Almeida.
 						A reconstrução da Rússia e a construção do socialismo: a solidez da economia soviética frente a crise de 1929.
@@ -8879,32 +9037,47 @@
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Murilo Sebe Bon Meihy</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>MEIHY, M. S. B.; BRANCO, J. F. C. . Calculadora de Índice de Propensão a Conflito (IPC) - FAPERJ. 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B157" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C157" t="inlineStr">
+      <c r="B159" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C159" t="inlineStr">
         <is>
           <t>Matheus Camargo Raitano. O retrato na parede que os paulistas colocaram: a eleição presidencial de 1950 e o papel de São Paulo na vitória de Getulio Vargas.
                         Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B160" t="n">
         <v>2024</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Mariana Alves.
                             Trabalhadores da Behring: perfil social e étnico na Primeira República.
@@ -8913,16 +9086,16 @@
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B161" t="n">
         <v>2024</v>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>Anna Luiza Silveira Ramos Fernandes.
                             ?Juntas descobrimos coisas que já sabíamos?: gênero, classe e o Movimento de Mulheres Trabalhadoras Rurais do Sertão Central de Pernambuco (1982-1988).
@@ -8931,16 +9104,16 @@
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B162" t="n">
         <v>2024</v>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>Juliana Mendes da Silva.
                             Os trabalhadores de estiva: A vida dos trabalhadores no Porto do Rio no início do século XX sob o olhar de João do Rio.
@@ -8949,16 +9122,16 @@
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B161" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C161" t="inlineStr">
+      <c r="B163" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>Phillip Mazza Guimarães.
                             A um clique da verdade: memórias subterrâneas, regime militar e novas direitas.
@@ -8967,16 +9140,16 @@
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B162" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C162" t="inlineStr">
+      <c r="B164" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>Yan Melo de Almeida.
                             Ministro sem pasta do futebol brasileiro: Mário Filho e a ?Batalha pelo Estádio? (1947).
@@ -8985,16 +9158,16 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B163" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C163" t="inlineStr">
+      <c r="B165" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>Jhulye dos Santos Passarelo.
                             ?O Petróleo ainda é nosso??: A participação dos petroleiros do Rio de Janeiro nas mobilizações de 1987 e 1988 e a questão petrolífera na conjuntura política nacional.
@@ -9003,16 +9176,16 @@
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C164" t="inlineStr">
+      <c r="B166" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>Mateus Medrado.
                             Navegando contra a crise: bloco no poder, trabalho e sobredeterminação na reconstrução da Indústria Naval Fluminense (1995-2002).
@@ -9021,16 +9194,16 @@
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C165" t="inlineStr">
+      <c r="B167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>Thompson Clímaco Alves.
                             Entre lavouras e fábricas: trabalhadores e industrialização no município de Barra Mansa (1920-1930).
@@ -9039,16 +9212,16 @@
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B166" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C166" t="inlineStr">
+      <c r="B168" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>Antonio Daniel Corria de Araújo.
                             Uma Aspiração Secular: da idealização da ponte Rio-Niterói a sua construção pelos trabalhadores (1968-1974).
@@ -9057,16 +9230,16 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C167" t="inlineStr">
+      <c r="B169" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>Everton Adriano Silva.
                             A copa e a cozinha em luta: a greve dos empregados hoteleiros do Rio de Janeiro (1953).
@@ -9075,16 +9248,16 @@
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B168" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C168" t="inlineStr">
+      <c r="B170" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C170" t="inlineStr">
         <is>
           <t>Felipe Annunziata.
                             Do abolicionismo ao socialismo: a trajetória de Luiz da França e Silva e da revista Typographica.
@@ -9093,16 +9266,16 @@
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B171" t="n">
         <v>2024</v>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>Jean Pedro Silva de Sousa.
 						Da liberdade à frustração: o governo estadual de José Sarney no Maranhão entre 1965-1969.
@@ -9111,16 +9284,16 @@
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B172" t="n">
         <v>2024</v>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Jorge Luiz Pacheco.
 						Industriais e o pré-golpe empresarial-militar de 1964: ações e manifestações no CIRJ e na FIRJAN.
@@ -9129,16 +9302,16 @@
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C171" t="inlineStr">
+      <c r="B173" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>Pedro Henrique Corrêa Jacob.
 						Rogai por nós pecadores: a trajetória do cristianismo da libertação no Chile revolucionário.
@@ -9147,16 +9320,16 @@
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B172" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C172" t="inlineStr">
+      <c r="B174" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>João Pedro Teixeira Ferreira Thimoteo.
 						O Partido dos Trabalhadores aos olhos da ditadura: contrarrevolução e luta de massas na transição à democracia restrita (1979-1988).
@@ -9165,16 +9338,16 @@
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B173" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C173" t="inlineStr">
+      <c r="B175" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C175" t="inlineStr">
         <is>
           <t>Ingrid Ribeiro Santos Araujo.
 						ALVO ESTUDANTIL: A repressão contra o Movimento de Ocupações das escolas paulistas em 2015.
@@ -9183,16 +9356,16 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C174" t="inlineStr">
+      <c r="B176" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C176" t="inlineStr">
         <is>
           <t>Sofia Magalhães Gonçalves.
 						As relações entre o desenvolvimento do capitalismo e o processo de favelização no Rio de Janeiro (1893-1907).
@@ -9201,16 +9374,16 @@
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B175" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C175" t="inlineStr">
+      <c r="B177" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C177" t="inlineStr">
         <is>
           <t>Marcus Vinícius Nunes Medina.
 						Guerra do Paraguai: da senzala para o front, a guerra como alforria.
@@ -9219,16 +9392,16 @@
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B176" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C176" t="inlineStr">
+      <c r="B178" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C178" t="inlineStr">
         <is>
           <t>Renata Figueiredo do Vale.
 						A violência urbana no Rio de Janeiro segundo o jornal Movimento.
@@ -9237,48 +9410,48 @@
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B177" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C177" t="inlineStr">
+      <c r="B179" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C179" t="inlineStr">
         <is>
           <t>Juliano Mello Vieira. Disputas e narrativas políticas em torno da memória da escravidão.
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal Rural do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+    <row r="180">
+      <c r="A180" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B178" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C178" t="inlineStr">
+      <c r="B180" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C180" t="inlineStr">
         <is>
           <t>Caio de Mattos Carvalho. Economia D?alma: O fluxo do mercado interno brasileiro no século XIX.
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal Rural do Rio de Janeiro, FAPERJ/CNPQ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B179" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C179" t="inlineStr">
+      <c r="B181" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C181" t="inlineStr">
         <is>
           <t>JORDANA PEREIRA RODRIGUES.
 						Malakat?s y Siervos. Makatab y manumissíon Comparando fontes islâmicas e hispânicas sobre servidão e liberdade na Idade Média.
@@ -9288,16 +9461,16 @@
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B180" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C180" t="inlineStr">
+      <c r="B182" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C182" t="inlineStr">
         <is>
           <t>Louhana Rosa Dias de Oliveira.
 						Crime, pecado e remissão: Um olhar através das Escrituras de Perdão do Rio de Janeiro setecentista.
@@ -9306,16 +9479,16 @@
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+    <row r="183">
+      <c r="A183" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B181" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C181" t="inlineStr">
+      <c r="B183" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t>Lucas Almeida.
 						Degredados em Moçambique (século XIX).
@@ -9324,16 +9497,16 @@
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B182" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C182" t="inlineStr">
+      <c r="B184" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C184" t="inlineStr">
         <is>
           <t>Daniel Soares Lopes Morais.
 						A composição social da Santa Casa de Misericória (Rio de Janeiro,1700-1800).
@@ -9342,16 +9515,16 @@
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B183" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C183" t="inlineStr">
+      <c r="B185" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C185" t="inlineStr">
         <is>
           <t>Giovana Souza Guimarães do Nascimento.
                             La Piú illustre ed eccellente matrona: Isabella d?Este e o poder pela arte do Renascimento italiano.
@@ -9360,160 +9533,160 @@
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B186" t="n">
         <v>2024</v>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>Hevelynn Chaves. Maquiavelismo na teoria do totalitarismo de R. Aron.
 					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B187" t="n">
         <v>2024</v>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>Ana Jullia do Nascimento Gomes. Jojo Rabbit e O menino do pijama listrado: o nazismo revisitado pelo cinema contemporâneo.
 					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+    <row r="188">
+      <c r="A188" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="B188" t="n">
         <v>2024</v>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>João Victor Barreiro. A Construção do Franquismo na Imprensa Falangista (1936-1939).
 					Início: 2024. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+    <row r="189">
+      <c r="A189" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B187" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C187" t="inlineStr">
+      <c r="B189" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C189" t="inlineStr">
         <is>
           <t>Raquel Bravo. Bolsonarismo por Bolsonaro: uma análise das mídias sociais de Jair Messias nas eleições de 2018.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B188" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C188" t="inlineStr">
+      <c r="B190" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C190" t="inlineStr">
         <is>
           <t>Anna Carolina Ventura. O Fascismo Inglês e a Questão Agrária.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B189" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C189" t="inlineStr">
+      <c r="B191" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C191" t="inlineStr">
         <is>
           <t>Camilla Gonzalez Medeiros da Fonseca. A Guerra Fria sob o olhar da Careta: Relações entre Estados Unidos da América e União Soviética (1944-1960).
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+    <row r="192">
+      <c r="A192" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B190" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C190" t="inlineStr">
+      <c r="B192" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C192" t="inlineStr">
         <is>
           <t>Pedro Arreguy. Clara Zetkin e seu olhar sobre o Fascismo.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+    <row r="193">
+      <c r="A193" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B191" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C191" t="inlineStr">
+      <c r="B193" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C193" t="inlineStr">
         <is>
           <t>Dora Vaz. Zamiátin e Rand: Representações do Anticomunismo.
 					Início: 2023. Trabalho de Conclusão de Curso (Graduação em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+    <row r="194">
+      <c r="A194" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B192" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C192" t="inlineStr">
+      <c r="B194" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C194" t="inlineStr">
         <is>
           <t>Clara Fonseca. A Ideia de Modernidade na Obra de Hannah Arendt.
 					Início: 2022. Trabalho de Conclusão de Curso (Graduação em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+    <row r="195">
+      <c r="A195" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="B195" t="n">
         <v>2024</v>
       </c>
-      <c r="C193" t="inlineStr">
+      <c r="C195" t="inlineStr">
         <is>
           <t>Rayssa Silva Vieira.
 						Totalitarismo em debate: as perspectivas do conceito em Arendt e Aron (1951-1965).
@@ -9522,16 +9695,16 @@
         </is>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="B196" t="n">
         <v>2024</v>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>Breno Ventura Barbosa.
 						O Debate dos anos 1920: a capitulação da teoria da Revolução Permanente no Partido Bolchevique (1923-1926).
@@ -9540,16 +9713,16 @@
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B195" t="n">
+      <c r="B197" t="n">
         <v>2024</v>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Isabel Christimann de Miranda.
 						Representações do Totalitarismo em Jogos Vorazes e as distopias como ferramenta de análise para a violência.
@@ -9558,16 +9731,16 @@
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+    <row r="198">
+      <c r="A198" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="B198" t="n">
         <v>2024</v>
       </c>
-      <c r="C196" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Pedro Cantarino Rezende.
 						?A política morreu, viva a política?: Uma análise dos sentidos da ação política e da democracia na plataforma política de Herbert Daniel (1986).
@@ -9576,16 +9749,16 @@
         </is>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+    <row r="199">
+      <c r="A199" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B197" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C197" t="inlineStr">
+      <c r="B199" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C199" t="inlineStr">
         <is>
           <t>Murilo Rosa Garcias.
 						Um Judeu Maçom na Pregação Protestante: A trajetória de Salomão Guinsburg no Norte Fluminense (1890-1899).
@@ -9594,16 +9767,16 @@
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+    <row r="200">
+      <c r="A200" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B198" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C198" t="inlineStr">
+      <c r="B200" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C200" t="inlineStr">
         <is>
           <t>Eduardo Dias Campanelli.
 						A Estratégia discursiva sobre Memória na Graphic Novel Maus.
@@ -9612,16 +9785,16 @@
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+    <row r="201">
+      <c r="A201" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B199" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C199" t="inlineStr">
+      <c r="B201" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C201" t="inlineStr">
         <is>
           <t>Rodrigo Habl.
 						Da Infância à Primeira Guerra: a formação de Hitler nas biografias de Joachim Fest e Ian Kershaw.
@@ -9630,16 +9803,16 @@
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+    <row r="202">
+      <c r="A202" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B200" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C200" t="inlineStr">
+      <c r="B202" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C202" t="inlineStr">
         <is>
           <t>Leonardo Gonçalves da Costa.
 						Trabalhadores de todos os países e povos oprimidos de todo o mundo: uni-vos! O Congresso dos povos do Oriente (1920) e a luta anticolonial.
@@ -9648,16 +9821,16 @@
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+    <row r="203">
+      <c r="A203" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B201" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C201" t="inlineStr">
+      <c r="B203" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C203" t="inlineStr">
         <is>
           <t>Maria Eduarda Fontes da Costa e Silva Merz.
 						Gênero e Humor: As Representações do Feminino nas Capas da Revista Simplicissimus (1933-1939).
@@ -9666,16 +9839,16 @@
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B202" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C202" t="inlineStr">
+      <c r="B204" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C204" t="inlineStr">
         <is>
           <t>Harel Salim.
 						A nova direita e sua consolidação por meio de uma comunidade de sentido nas mídias sociais: análise do caso brasileiro.
@@ -9684,16 +9857,16 @@
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B203" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C203" t="inlineStr">
+      <c r="B205" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C205" t="inlineStr">
         <is>
           <t>Ana Beatriz Ferreira Marques.
 						Representações da Revolução no Filme Outubro, de Eisenstein.
@@ -9702,16 +9875,16 @@
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+    <row r="206">
+      <c r="A206" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B204" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C204" t="inlineStr">
+      <c r="B206" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C206" t="inlineStr">
         <is>
           <t>Lorrany Lima Alves da Costa.
 						'Shoah' - Uma análise sobre a necessidade da memória no debate público acerca do Holocausto.
@@ -9720,16 +9893,16 @@
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B205" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C205" t="inlineStr">
+      <c r="B207" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C207" t="inlineStr">
         <is>
           <t>Bruno Wandermurem de Oliveira Medeiros.
 						Negacionismo gráfico: Israel e o Holocausto nos concursos de charges no Irã  (2006 e 2016).
@@ -9738,16 +9911,16 @@
         </is>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B206" t="n">
+      <c r="B208" t="n">
         <v>2024</v>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Lizandra da Silva Rodrigues.
 						A arte da política: a ação da rainha Catarina de Portugal na representação visual do poder da dinastia de Avis.
@@ -9756,16 +9929,16 @@
         </is>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+    <row r="209">
+      <c r="A209" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B207" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C207" t="inlineStr">
+      <c r="B209" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C209" t="inlineStr">
         <is>
           <t>Milene dos Santos Ribeiro.
 						Da bestialidade ao súdito: o ensino jesuítico como dispositivo de manutenção de poder e organização social luso-brasileiro na Bahia (1549-1560).
@@ -9774,16 +9947,16 @@
         </is>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B208" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C208" t="inlineStr">
+      <c r="B210" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C210" t="inlineStr">
         <is>
           <t>Mariana Barrozo Gonzalez.
 						O comportamento esperado e a prática realizada: casamento e divórcio no Rio de Janeiro no século XIX (1808-1831).
@@ -9793,16 +9966,16 @@
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B209" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C209" t="inlineStr">
+      <c r="B211" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C211" t="inlineStr">
         <is>
           <t>Andrey Damico Adorno Soares.
 						DAS PROMESSAS DE CASAMENTO AO ÓDIO CAPITAL: AS REPRESENTAÇÕES DE GÊNERO NAS AÇÕES DE DIVÓRCIO DO TRIBUNAL ECLESIÁSTICO DO RIO DE JANEIRO (1808-1823).
@@ -9812,16 +9985,16 @@
         </is>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B210" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C210" t="inlineStr">
+      <c r="B212" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C212" t="inlineStr">
         <is>
           <t>Júlio Chaves Seixas.
 						REPRESENTAÇÕES DA HONRA E HONESTIDADE FEMININA E DA VIOLÊNCIA MASCULINA NOS LIBELOS DE DIVÓRCIO DO INÍCIO DO SÉCULO XIX NO RIO DE JANEIRO.
@@ -9831,16 +10004,16 @@
         </is>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B211" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C211" t="inlineStr">
+      <c r="B213" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C213" t="inlineStr">
         <is>
           <t>Beatriz Martins de Andrade.
 						As plurais maternidades no Rio de Janeiro do século XIX.
@@ -9849,16 +10022,16 @@
         </is>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B212" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C212" t="inlineStr">
+      <c r="B214" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C214" t="inlineStr">
         <is>
           <t>Ariana Costa dos Santos.
 						Maria Joaquina da Costa Botelho de Magalhães: a matriarca da família Botelho Magalhães sob a ótica de correspondências entre 1863 e 1921.
@@ -9878,7 +10051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9925,13 +10098,28 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Andrea Daher</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DAHER, Andrea. A pequena grande história de Giovanni Levi. 2021. Filme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Antonio Carlos Jucá de Sampaio</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Beatriz Weisheimer de Mendonça.
 						O ?governo da casa?: Economia costumeira no Rio de Janeiro setecentista.
@@ -9941,21 +10129,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Beatriz Catão Cruz Santos</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Maria Clara Carvalho Fernandes da Silva. Os ourives, suas práticas e a História Urbana do Rio de Janeiro - século XVIII. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
@@ -9963,11 +10136,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marcus Vinícius dos Anjos. As irmandades de ofício no Império Português: os ourives e suas sociabilidades. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Maria Clara Carvalho Fernandes da Silva. Os ourives, suas práticas e a História Urbana do Rio de Janeiro - século XVIII. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -9978,9 +10151,24 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C6" t="inlineStr">
+        <is>
+          <t>Marcus Vinícius dos Anjos. As irmandades de ofício no Império Português: os ourives e suas sociabilidades. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Beatriz Catão Cruz Santos</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Joaquim Guilherme Camargo Mendes.
 						Os ourives e sua atuação na cidade do Rio de Janeiro no século XVIII.
@@ -9990,16 +10178,16 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Gustavo Saraiva Soares.
 						Os ourives e suas associações na Bahia do século XVIII.
@@ -10009,16 +10197,16 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Beatriz Catão Cruz Santos</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Lucas Domingues Torres do Nascimento.
 						Celebrações no Bispado do Rio de Janeiro do século XVIII.
@@ -10028,21 +10216,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Cláudio Costa Pinheiro</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>André Gustavo Januário. Quando éramos Reis As independências, o desenvolvimentismo e o impacto político da constituição dos estudos de área na África e no Sul Global, pós 2ª Guerra Mundial. Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
@@ -10053,6 +10226,21 @@
         <v>2022</v>
       </c>
       <c r="C10" t="inlineStr">
+        <is>
+          <t>André Gustavo Januário. Quando éramos Reis As independências, o desenvolvimentismo e o impacto político da constituição dos estudos de área na África e no Sul Global, pós 2ª Guerra Mundial. Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cláudio Costa Pinheiro</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Daniele Meirelles Lambert.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10062,16 +10250,16 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B12" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Anna Clara Gonçalves.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10081,16 +10269,16 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Beatriz Gomes de Souza.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10099,16 +10287,16 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>Daniel Pereira Aragão.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10118,16 +10306,16 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Gustavo Felicidade da Costa.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10136,16 +10324,16 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Cláudio Costa Pinheiro</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>Luana Midmacher.
                             O impacto do Covid-19 na formação de quadros científicos.
@@ -10154,21 +10342,6 @@
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Deivid Valério Gaia</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Beatriz Ferreira Ponte. O neoclássico dos palacetes de Petrópolis: deuses nos tímpanos e platibandas. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
@@ -10176,11 +10349,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Rafael Pontual Souto Maior Tavares. Considerações sobre o martírio cristão da época antonina (séc. II d.C.). Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+          <t>Beatriz Ferreira Ponte. O neoclássico dos palacetes de Petrópolis: deuses nos tímpanos e platibandas. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -10195,7 +10368,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Renan Furtado de Luna. Economia e política entre Roma e Egito à época de Marco Antonio e Cleopatra. Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+          <t>Rafael Pontual Souto Maior Tavares. Considerações sobre o martírio cristão da época antonina (séc. II d.C.). Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
@@ -10206,9 +10379,24 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C19" t="inlineStr">
+        <is>
+          <t>Renan Furtado de Luna. Economia e política entre Roma e Egito à época de Marco Antonio e Cleopatra. Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Deivid Valério Gaia</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>Filipe Ramos Cerqueira.
 						As relações entre alteridade e domínio: um estudo a partir da iconografia monetária..
@@ -10217,25 +10405,10 @@
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Flávio dos Santos Gomes</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Fellipe Vasconcellos. Fugas Escravas: Identidades e prosopografia, Rio de Janeiro, c. XIX. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Flávio dos Santos Gomes</t>
+          <t>Deivid Valério Gaia</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -10243,14 +10416,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lenílson da Nóbrega. Escravidão Urbana. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+          <t>FORMISANO, M. ;Gaia, Deivid Valério; SANTORO, F. . Organização do curso de extensão sobre História Antiga e problemas ambientais com Marco Formisano da Universidade de Gant - Belgica. 2022. (Outro).</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Flávio dos Santos Gomes</t>
+          <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -10258,50 +10431,128 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ana Beatriz Lamego Viana. Cartografias da escravidão e da liberdade. Início: 2021. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+          <t>CASTRO, F. L. V.. Afinal-pele-foi-conivente-com-ditadura-militar. 2021.
+							(Programa de rádio ou TV/Entrevista).</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Leonardo Rosendo Marques Mota. Atualização historiográfica sobre a Peste Negra (1348): os impactos comunitários da epidemia em regiões não europeias. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, CNPq-UFRJ. (Orientador).</t>
+          <t>CASTRO, F. L. V.. Herdeiros de Chico Guanabara. 2021.
+							(Programa de rádio ou TV/Entrevista).</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gabriel de Carvalho Godoy Castanho</t>
+          <t>Fernando Luiz Vale Castro</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Giulia Vieira Fernandes dos Santos. O sofrimento durante a Peste Negra (1348): experiência, sofrimento e resiliência. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+          <t>CASTRO, F. L. V.. A memória do Rei: Ciências Sociais devem manter pelé vivo, com releituras e pluralidades. 2023.
+							(Programa de rádio ou TV/Entrevista).</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Flávio dos Santos Gomes</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fellipe Vasconcellos. Fugas Escravas: Identidades e prosopografia, Rio de Janeiro, c. XIX. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Flávio dos Santos Gomes</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lenílson da Nóbrega. Escravidão Urbana. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Flávio dos Santos Gomes</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ana Beatriz Lamego Viana. Cartografias da escravidão e da liberdade. Início: 2021. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B28" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Leonardo Rosendo Marques Mota. Atualização historiográfica sobre a Peste Negra (1348): os impactos comunitários da epidemia em regiões não europeias. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, CNPq-UFRJ. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Giulia Vieira Fernandes dos Santos. O sofrimento durante a Peste Negra (1348): experiência, sofrimento e resiliência. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Gabriel de Carvalho Godoy Castanho</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>Suelen da Silva Sousa.
 						Atualização historiográfica sobre a Peste Negra (1348): os impactos comunitários da epidemia em regiões não europeias..
@@ -10311,16 +10562,16 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>Suelen da Silva Sousa.
 						Atualização Historiográfica sobre s Segunda Pandemia da Peste (pós-2011): por uma história global da epidemia.
@@ -10330,16 +10581,16 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Gabriel de Carvalho Godoy Castanho</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>Luana Duarte de Freitas.
 						O sofrimento durante a Peste Negra (1348):  Uma História Social Das Emoções (a ira no Decameron de Giovanni Boccaccio).
@@ -10349,31 +10600,31 @@
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Henrique Buarque de Gusmão</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B33" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>Jhuly Anne de Paulo Valério. O ator como co-autor: a construção do personagem no romance moderno como matriz do trabalho de ator proposto por Constantin Stanislavski. Início: 2021. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Jorge Victor de Araújo Souza</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>Jéssica Matos de Oliveira.
 						?Comunidades emocionais? no Peru: comparação de narrativas das crônicas de ordens religiosas (sécs. XVI-XVII).
@@ -10383,91 +10634,107 @@
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ana Menandro Macahyba. A Nobreza da terra baiana nas escrituras da Cabeça política do Brasil: Salvador da Bahia, 1734-1742.. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Joao Luis Ribeiro Fragoso</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Monique da Silva Guimarães. A Nobreza da terra baiana nas escrituras da Cabeça política do Brasil: Salvador da Bahia, 1734-1742.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Lise Fernanda Sedrez</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Yasmin de Rezende Muniz Reis. Atlas de Outros Mundos: Atualizando experiências. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Lise Fernanda Sedrez</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Izabelly Ferreira Javarys. Atlas de Outros Mundos: Estabelecendo redes. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Lise Fernanda Sedrez</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Julia Duarte Teixeira. Atlas de Outros Mundos: Sonhos, Experiências e Desejos em Resistência Climática.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
-        </is>
-      </c>
-    </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Jorge Victor de Araújo Souza</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CAMENIETZKI, C. Z. ; CARVALHO, D. P. O. ;SOUZA, J. V. A.. Perspectivas em História Moderna (Extensão). 2022; Tema:
+						Pesquisas atuais em História Moderna. (Rede social).</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Joao Luis Ribeiro Fragoso</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ana Menandro Macahyba. A Nobreza da terra baiana nas escrituras da Cabeça política do Brasil: Salvador da Bahia, 1734-1742.. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Joao Luis Ribeiro Fragoso</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Monique da Silva Guimarães. A Nobreza da terra baiana nas escrituras da Cabeça política do Brasil: Salvador da Bahia, 1734-1742.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Yasmin de Rezende Muniz Reis. Atlas de Outros Mundos: Atualizando experiências. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Izabelly Ferreira Javarys. Atlas de Outros Mundos: Estabelecendo redes. Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Julia Duarte Teixeira. Atlas de Outros Mundos: Sonhos, Experiências e Desejos em Resistência Climática.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lise Fernanda Sedrez</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>Pedro Gomes Mariano.
 						Arqueologia e História Ambiental: Diálogos possíveis e existentes no contexto da Mata Atlântica.
@@ -10477,16 +10744,16 @@
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C36" t="inlineStr">
+      <c r="B42" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>Patrick Barros Benaion.
 						OCC! Novas respostas comunitárias aos desafios das mudanças climáticas,  um projeto interdisciplinar.
@@ -10496,16 +10763,16 @@
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Lise Fernanda Sedrez</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C37" t="inlineStr">
+      <c r="B43" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>Julia Duarte Teixeira.
 						Estratégias Sócio-Ambientais: o Morro da Babilônia (OCC!).
@@ -10515,46 +10782,46 @@
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B44" t="n">
         <v>2024</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Isabela Martins Gomes. O romance de formação em perspectiva histórica. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B45" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>ANÁLIA LICKER SILVA DE MELO. O romance de formação em perspectiva histórica. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C40" t="inlineStr">
+      <c r="B46" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>Felipe José Souza Fernandes da Silva.
 						História e Ficção: Literalidade da história e historicidade da literatura.
@@ -10564,16 +10831,16 @@
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C41" t="inlineStr">
+      <c r="B47" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>Lorena Pires Barros.
 						História e Ficção: Estudos sobre a literalidade da historiografia e a historicidade da literatura.
@@ -10582,16 +10849,16 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>Luiza Larangeira da Silva Mello</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C42" t="inlineStr">
+      <c r="B48" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>Giovana do Nascimento Bruno.
 						O romance de formação em perspectiva histórica.
@@ -10601,46 +10868,46 @@
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C43" t="inlineStr">
+      <c r="B49" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>Híkaro de Castro Dias Ferreira. Memórias da pandemia. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C44" t="inlineStr">
+      <c r="B50" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>Rodrigo Maroja da Silva. Memórias da pandemia. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, UFRJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C45" t="inlineStr">
+      <c r="B51" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>Vinicius Nobre Tardite.
 						.Construindo a Paz sobre Memórias de Guerra: El Salvador.
@@ -10650,16 +10917,16 @@
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C46" t="inlineStr">
+      <c r="B52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>Adriana Silva Eugênio.
 						Estudo sobre o processo de paz na Colômbia.
@@ -10669,16 +10936,16 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Maria Paula Nascimento Araujo</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C47" t="inlineStr">
+      <c r="B53" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>Simone Pinto.
 						Lute como uma mãe: trajetória política de mães de vítimas de violência de estado no Rio de Janeiro.
@@ -10688,31 +10955,31 @@
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C48" t="inlineStr">
+      <c r="B54" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>Lune Garcia de Souza Bezerra. Fontes para a História das Mulheres na Grécia Antiga. Início: 2022. Iniciação científica (Graduando em História)  - UFRJ Instituto de HistÃ³ria. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C49" t="inlineStr">
+      <c r="B55" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>Talita Duarte.
 						Fontes para a História das Mulheres na Grécia Antiga.
@@ -10722,16 +10989,16 @@
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>Marta Mega de Andrade</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C50" t="inlineStr">
+      <c r="B56" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>Juliana Miranda Bello.
 						Historia e Historiografia da Antiguidade grega.
@@ -10740,91 +11007,139 @@
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Marta Mega de Andrade</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ANDRADE, M. M.; ARAUJO, C. B. . Mulheres na Filosofia - Aspásia de Mileto. 2022.
+							(Programa de rádio ou TV/Entrevista).</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Marta Mega de Andrade</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ANDRADE, MARTA MEGA DE; SANTOS, A. C. ; BATISTA, L C ; NEVES, D. . Despensando a polis. 2022; Tema:
+						História antiga grega para as redes sociais. (Rede social).</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Marta Mega de Andrade</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ANDRADE, M. M.. Aspásia de Mileto. 2022; Tema:
+						Blog Mulheres na Filosofia - participação especial. (Blog).</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="B60" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Vinicius Oliveira. O Julgamento de Eichmann e a repercussão na imprensa braisleira 1960/1963. Início: 2023. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C52" t="inlineStr">
+      <c r="B61" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>Lucas Oliveira. Recepção do Julgamento de Eichmann no Brasil: projeto e perspectivas. Início: 2022. Iniciação científica (Graduando em História)  - Instituto de História, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C53" t="inlineStr">
+      <c r="B62" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>Beatriz dos Santos da Silva. Genocídio em questão: debate acerca da perspectiva da Abdias Nascimento e a realidade do negro no Brasil. Início: 2022. Iniciação científica (Graduando em História)  - Instituto de História da UFRJ, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B63" t="n">
         <v>2024</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Miguel Gryner de Moraes. Sindicalistas negros no Rio de Janeiro (1950-1970). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal Fluminense, Fundação Carlos Chagas Filho de Amparo à Pesquisa do Estado do RJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C55" t="inlineStr">
+      <c r="B64" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>Raquel da Silva Souza do Nascimento. Trabalhadores ferroviários em Cachoeira de Macacu, Rio de Janeiro (décadas de 1940 a 60). Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Coordenação de Aperfeiçoamento de Pessoal de Nível Superior. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B65" t="n">
         <v>2024</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Larissa de Oliveira Farias.
                             O ?Motim da Fome?: os impactos da greve geral de 1962 na Baixada Fluminense.
@@ -10834,16 +11149,16 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C57" t="inlineStr">
+      <c r="B66" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>Natália Gomes Almeida.
                             "Quando a fábrica fecha": Trabalho, território e desindustrialização em Bangu (décadas de 1960 e 70).
@@ -10853,31 +11168,31 @@
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B58" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C58" t="inlineStr">
+      <c r="B67" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>Victória Villa Forte Baudison. Senhoras egressas do cativeiro (Rio de Janeiro, século XVIII). Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal Rural do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="B68" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>Jessica Siqueira dos Reis Costa.
 						Amores ilícitos e abandono: um estudo sobre as causas e consequências da exposição de crianças nos séculos XVIII e XIX.
@@ -10886,16 +11201,16 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B60" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C60" t="inlineStr">
+      <c r="B69" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>Louhana Rosa Dias de Oliveira.
 						Crime, pecado e remissão: Um olhar através das Escrituras de Perdão do Rio de Janeiro setecentista.
@@ -10904,16 +11219,16 @@
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B61" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C61" t="inlineStr">
+      <c r="B70" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>Lucas de Almeida Nascimento.
 						Degredados em Moçambique (século XIX).
@@ -10922,16 +11237,16 @@
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B62" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C62" t="inlineStr">
+      <c r="B71" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>JORDANA PEREIRA RODRIGUES.
 						Malakat?s y Siervos. Makatab y manumissíon Comparando fontes islâmicas e hispânicas sobre servidão e liberdade na Idade Média.
@@ -10941,46 +11256,46 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B72" t="n">
         <v>2024</v>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Gabriela Pitoco de Araujo da Silva. Em torno da boulangerie do barão d'Holbach: cultura impressa e radicalismo na França das Luzes. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B73" t="n">
         <v>2024</v>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Emanuelle da Conceição Tomaz. Mulheres desregradas: narrativas de crimes femininos dos dois lados do Canal da Mancha (França e Inglaterra, séculos XVI e XVII). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Fundação Carlos Chagas Filho de Amparo à Pesquisa do Estado do RJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B74" t="n">
         <v>2024</v>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Joaquim Guilherme de Camargo Mendes.
                             Em torno da boulangerie do barão d'Holbach: cultura impressa e radicalismo na França das Luzes.
@@ -10990,16 +11305,16 @@
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B75" t="n">
         <v>2024</v>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Marina da Silva Pereira.
                             Dos espinhos aos castanheiros: Diderot e Filosofia Radical na cultura impressa do XVIII.
@@ -11009,16 +11324,16 @@
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C67" t="inlineStr">
+      <c r="B76" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>Luisa Pádua Zanon.
                             Entre as possessões e o diabo: Cultura impressa e a representação do sobrenatural e dos possessos na Inglaterra Moderna.
@@ -11027,16 +11342,16 @@
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C68" t="inlineStr">
+      <c r="B77" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>Gabrielle Pacheco Noacco.
                             As representações de mulheres pecadoras na literatura de rua inglesa (séculos XVI e XVII).
@@ -11045,16 +11360,16 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C69" t="inlineStr">
+      <c r="B78" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>André Moreira.
                             Do deísmo ao ateísmo: a transição religiosa e filosófica de Denis Diderot (1745-1749).
@@ -11063,16 +11378,16 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+    <row r="79">
+      <c r="A79" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B70" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C70" t="inlineStr">
+      <c r="B79" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>Maria Júlia Viana.
                             ?The wife maliciously killeth her husband?: mulheres criminosas e suas representações na literatura de rua inglesa (XVI-XVII).
@@ -11081,16 +11396,16 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+    <row r="80">
+      <c r="A80" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C71" t="inlineStr">
+      <c r="B80" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>Luísa Pádua Zanon.
                             Mulheres desregradas: narrativas de crimes femininos dos dois lados do canal da Mancha (França e Inglaterra, séculos XVI e XVII).
@@ -11099,16 +11414,16 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C72" t="inlineStr">
+      <c r="B81" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>Gabrielle Pacheco Noacco.
                             Mulheres desregradas: narrativas de crimes femininos dos dois lados do canal da Mancha (França e Inglaterra, séculos XVI e XVII).
@@ -11117,106 +11432,106 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B82" t="n">
         <v>2024</v>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Fernanda Campanha. Ideologias, Representações e Humor: Democracia e Sociedade no Pasquim (1969-1989). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, PR1/UFRJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="83">
+      <c r="A83" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B83" t="n">
         <v>2024</v>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Katherine Kazumi. Ideologias, Representações e Humor: Democracia e Sociedade no Pasquim (1969-1989). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B84" t="n">
         <v>2024</v>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Caroline Ferreira Vilanova. Ideologias, Representações e Humor - Masculinidades no Pasquim. Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B85" t="n">
         <v>2024</v>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Ana Clara Soares. Ideologias, Representações e Humor: Democracia e Sociedade no Pasquim (1969-1989). Início: 2024. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B77" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C77" t="inlineStr">
+      <c r="B86" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>Mariana Lopez Arreguy. Ideologias, Representações e Humor: A Segunda Guerra Mundial e a Guerra Fria na Revista Careta (1939-1960). Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Fundação Carlos Chagas Filho de Amparo à Pesquisa do Estado do RJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B78" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C78" t="inlineStr">
+      <c r="B87" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>Camilla Gonzalez Medeiros da Fonseca. Ideologias, Representações e Humor: A Segunda Guerra Mundial e a Guerra Fria na Revista Careta (1939-1960). Início: 2022. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Fundação Carlos Chagas Filho de Amparo à Pesquisa do Estado do RJ. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="88">
+      <c r="A88" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B88" t="n">
         <v>2024</v>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Hevelynn Cristina Chaves.
 						Democracia em Tempos de Guerra Fria - Maquiavelismo em Raymond Aron.
@@ -11226,16 +11541,16 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+    <row r="89">
+      <c r="A89" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B89" t="n">
         <v>2024</v>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>Caroline Ferreira Vilanova.
 						Democracia em Tempos de Guerra Fria - Hannah Arendt e a Banalidade do Mal.
@@ -11245,16 +11560,16 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+    <row r="90">
+      <c r="A90" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="B90" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>Anna Carolina Ventura.
 						Comunismo e Fascismo nas Páginas da Punch - uma análise documentária do Humor Inglês.
@@ -11264,16 +11579,16 @@
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="91">
+      <c r="A91" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B82" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C82" t="inlineStr">
+      <c r="B91" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>Maria Eduarda Fontes da Costa e Silva Merz.
 						Comunismo e Fascismo nas Páginas da Punch - uma análise documentária do Humor Inglês.
@@ -11283,16 +11598,16 @@
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="92">
+      <c r="A92" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B83" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C83" t="inlineStr">
+      <c r="B92" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>Rayssa Silva Vieira.
 						Democracia em Tempos de Guerra Fria: Modernidade em Raymond Aron.
@@ -11302,16 +11617,16 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="93">
+      <c r="A93" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B84" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C84" t="inlineStr">
+      <c r="B93" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>Pedro Cantarino Rezende.
 						Democracia em Tempos de Guerra Fria: Esfera Pública em Hannah Arendt.
@@ -11321,16 +11636,16 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+    <row r="94">
+      <c r="A94" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B85" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C85" t="inlineStr">
+      <c r="B94" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>Bruno Wandermurem de Oliveira Medeiros.
 						Democracia em Tempos de Guerra Fria: Verdade e Cultura em Hannah Arendt.
@@ -11339,46 +11654,46 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B86" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C86" t="inlineStr">
+      <c r="B95" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>Giovana Farias. Blockade Runners Confederados na Costa Brasileira. Início: 2022. Iniciação científica (Graduando em História - Licenciatura Ou Bacharelado)  - Universidade Federal Rural do Rio de Janeiro, CERDIA BRASIL INDUSTRIA E COMERCIO LTDA. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B87" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C87" t="inlineStr">
+      <c r="B96" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>Beatriz Alves. James Watson Webb: um diplomata na Era da Emancipação e da Construção de Estados, 1861-1869.. Início: 2022. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>Vitor Izecksohn</t>
         </is>
       </c>
-      <c r="B88" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C88" t="inlineStr">
+      <c r="B97" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>Pedro Arreguy.
 						A Questão Christie..
@@ -11388,31 +11703,31 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+    <row r="98">
+      <c r="A98" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B98" t="n">
         <v>2024</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Ana de Ávila Gitahy. Processos de divórcio na diocese do Rio de Janeiro (c. 1808-1830). Início: 2024. Iniciação científica (Graduando em Abi - História)  - Universidade Federal do Rio de Janeiro, Conselho Nacional de Desenvolvimento Científico e Tecnológico. (Orientador).</t>
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+    <row r="99">
+      <c r="A99" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B90" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C90" t="inlineStr">
+      <c r="B99" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>Maria Eduarda Macedo dos Santos. Processos de divórcio na Diocese do Rio de Janeiro (c. 1808-1830). Início: 2023. Iniciação científica (Graduando em História)  - Universidade Federal do Rio de Janeiro. (Orientador).</t>
         </is>
@@ -14104,7 +14419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16170,13 +16485,29 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
+          <t>Michel Gherman</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>GHERMAN, MICHEL; ROCHA, M. F. ; RIBAS, A. . Canall do Michel Gherman. 2022; Tema:
+						Debates sobre Politica nacional e internacional. (Rede social).</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B115" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C115" t="inlineStr">
+      <c r="B116" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>Rodrigo Brum.
 						A atitude de Rosa Parks e seu impacto na imprensa do Alabama (1955).
@@ -16185,16 +16516,16 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B116" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C116" t="inlineStr">
+      <c r="B117" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C117" t="inlineStr">
         <is>
           <t>Priscilla Santos Nunes.
 						O papel do Estado brasileiro na extradição de Olga Benario Prestes.
@@ -16203,16 +16534,16 @@
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>Monica Grin</t>
         </is>
       </c>
-      <c r="B117" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C117" t="inlineStr">
+      <c r="B118" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C118" t="inlineStr">
         <is>
           <t>José Ricardo Andrade.
 						RACISMO E INVISIBILIDADE DO POVO NEGRO NAS NOVAS ARENAS DO FUTEBOL BRASILEIRO.
@@ -16221,16 +16552,16 @@
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+    <row r="119">
+      <c r="A119" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B118" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C118" t="inlineStr">
+      <c r="B119" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C119" t="inlineStr">
         <is>
           <t>Leticia Fernandes Cabral.
 						O Cemitério de Pretos Novos e a historiografia: silenciamentos e abordagens sobre o campo santo.
@@ -16239,16 +16570,16 @@
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+    <row r="120">
+      <c r="A120" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C119" t="inlineStr">
+      <c r="B120" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C120" t="inlineStr">
         <is>
           <t>Igor Bruno Dias.
 						Raízes, folhas e gotas de liberdade: Práticas de envenenamento por escravizados contra senhores, nas Províncias de Rio de janeiro e São Paulo (1850 ? 1888).
@@ -16257,16 +16588,16 @@
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+    <row r="121">
+      <c r="A121" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C120" t="inlineStr">
+      <c r="B121" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C121" t="inlineStr">
         <is>
           <t>Yuri das Virgens Miranda.
 						Movimentos sociais na Primeira República: como o samba canta e encanta a História do Brasil.
@@ -16275,16 +16606,16 @@
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+    <row r="122">
+      <c r="A122" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C121" t="inlineStr">
+      <c r="B122" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C122" t="inlineStr">
         <is>
           <t>Douglas Pereira Diniz.
 						Entre o Medo, a Fuga e o Destino: uma análise sobre as representações das masculinidades afro-americanas no romance Native Son (1940).
@@ -16293,16 +16624,16 @@
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+    <row r="123">
+      <c r="A123" t="inlineStr">
         <is>
           <t>Mônica Lima e Souza</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C122" t="inlineStr">
+      <c r="B123" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C123" t="inlineStr">
         <is>
           <t>Bruno Camenietzki Amorim.
 						Toca zabumba que o Rio é nosso: o Afoxé Filhos de Gandhi do Rio de Janeiro e sua atuação política, lúdica e religiosa entre 2017 e 2018 sob as lentes de um documentário.
@@ -16311,16 +16642,16 @@
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+    <row r="124">
+      <c r="A124" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B124" t="n">
         <v>2024</v>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Isadora Novaes dos Santos Bohrer.
 						A longa trajetória do Saara Ocidental e o projeto de ocupação marroquina: passado e presente marcado por invasões.
@@ -16329,16 +16660,16 @@
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="125">
+      <c r="A125" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C124" t="inlineStr">
+      <c r="B125" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>Marcelle Maia Ribeiro de Queiroz.
 						A guerra ao Terror como veículo para ascensão da Islamofobia: uma análise acerca da construção da identidade islâmica.
@@ -16347,16 +16678,16 @@
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+    <row r="126">
+      <c r="A126" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B125" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C125" t="inlineStr">
+      <c r="B126" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>Luiza de Paschoal Mohamed.
 						A Grande Viagem: a Rihla de Ibn Battuta (1304-1377) no Egito mameluco e a importância do conhecimento no mundo islâmico.
@@ -16365,16 +16696,16 @@
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+    <row r="127">
+      <c r="A127" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B126" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C126" t="inlineStr">
+      <c r="B127" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>Juliana Carvalho da Silva.
 						O papel e o alcance do poder feminino no Candomblé brasileiro: a figura emblemática de Mãe Stella de Oxossi.
@@ -16383,16 +16714,16 @@
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B127" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C127" t="inlineStr">
+      <c r="B128" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C128" t="inlineStr">
         <is>
           <t>Lohanna Rodrigues Reis.
 						O Neo-otomanismo turco no governo Erdogan e sua influência no Oriente Médio e no mundo islâmico.
@@ -16401,16 +16732,16 @@
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>Murilo Sebe Bon Meihy</t>
         </is>
       </c>
-      <c r="B128" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C128" t="inlineStr">
+      <c r="B129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C129" t="inlineStr">
         <is>
           <t>Raphael Pena de Almeida.
 						A reconstrução da Rússia e a construção do socialismo: a solidez da economia soviética frente a crise de 1929.
@@ -16419,16 +16750,31 @@
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Murilo Sebe Bon Meihy</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>MEIHY, M. S. B.; BRANCO, J. F. C. . Calculadora de Índice de Propensão a Conflito (IPC) - FAPERJ. 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
         <is>
           <t>Nuno Carlos de Fragoso Vidal</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C129" t="inlineStr">
+      <c r="B131" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C131" t="inlineStr">
         <is>
           <t>Nagela de Lourdes Pinto de Sousa.
 						O Impacto Geopolítico dos Investimentos da China na África: como a cooperação internacional influencia no acúmulo de poder da China.
@@ -16437,16 +16783,16 @@
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>Nuno Carlos de Fragoso Vidal</t>
         </is>
       </c>
-      <c r="B130" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C130" t="inlineStr">
+      <c r="B132" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C132" t="inlineStr">
         <is>
           <t>Vinicius Camuru Ruas.
 						QUARENTA ANOS DE MÉDICOS SEM FRONTEIRAS NA REPÚBLICA DEMOCRÁTICA DO CONGO: ajuda humanitária de emergência e ajuda humanitária de impacto a longo prazo?.
@@ -16455,16 +16801,16 @@
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B133" t="n">
         <v>2024</v>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Mariana Alves.
                             Trabalhadores da Behring: perfil social e étnico na Primeira República.
@@ -16473,16 +16819,16 @@
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B134" t="n">
         <v>2024</v>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Anna Luiza Silveira Ramos Fernandes.
                             ?Juntas descobrimos coisas que já sabíamos?: gênero, classe e o Movimento de Mulheres Trabalhadoras Rurais do Sertão Central de Pernambuco (1982-1988).
@@ -16491,16 +16837,16 @@
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B135" t="n">
         <v>2024</v>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Juliana Mendes da Silva.
                             Os trabalhadores de estiva: A vida dos trabalhadores no Porto do Rio no início do século XX sob o olhar de João do Rio.
@@ -16509,16 +16855,16 @@
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B134" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C134" t="inlineStr">
+      <c r="B136" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C136" t="inlineStr">
         <is>
           <t>Phillip Mazza Guimarães.
                             A um clique da verdade: memórias subterrâneas, regime militar e novas direitas.
@@ -16527,16 +16873,16 @@
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B135" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C135" t="inlineStr">
+      <c r="B137" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C137" t="inlineStr">
         <is>
           <t>Yan Melo de Almeida.
                             Ministro sem pasta do futebol brasileiro: Mário Filho e a ?Batalha pelo Estádio? (1947).
@@ -16545,16 +16891,16 @@
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B136" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C136" t="inlineStr">
+      <c r="B138" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C138" t="inlineStr">
         <is>
           <t>Jhulye dos Santos Passarelo.
                             ?O Petróleo ainda é nosso??: A participação dos petroleiros do Rio de Janeiro nas mobilizações de 1987 e 1988 e a questão petrolífera na conjuntura política nacional.
@@ -16563,16 +16909,16 @@
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B137" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C137" t="inlineStr">
+      <c r="B139" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C139" t="inlineStr">
         <is>
           <t>Mateus Medrado.
                             Navegando contra a crise: bloco no poder, trabalho e sobredeterminação na reconstrução da Indústria Naval Fluminense (1995-2002).
@@ -16581,16 +16927,16 @@
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B138" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C138" t="inlineStr">
+      <c r="B140" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C140" t="inlineStr">
         <is>
           <t>Thompson Clímaco Alves.
                             Entre lavouras e fábricas: trabalhadores e industrialização no município de Barra Mansa (1920-1930).
@@ -16599,16 +16945,16 @@
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B139" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C139" t="inlineStr">
+      <c r="B141" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C141" t="inlineStr">
         <is>
           <t>Antonio Daniel Corria de Araújo.
                             Uma Aspiração Secular: da idealização da ponte Rio-Niterói a sua construção pelos trabalhadores (1968-1974).
@@ -16617,16 +16963,16 @@
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B140" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C140" t="inlineStr">
+      <c r="B142" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C142" t="inlineStr">
         <is>
           <t>Everton Adriano Silva.
                             A copa e a cozinha em luta: a greve dos empregados hoteleiros do Rio de Janeiro (1953).
@@ -16635,16 +16981,16 @@
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>Paulo Roberto Ribeiro Fontes</t>
         </is>
       </c>
-      <c r="B141" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C141" t="inlineStr">
+      <c r="B143" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C143" t="inlineStr">
         <is>
           <t>Felipe Annunziata.
                             Do abolicionismo ao socialismo: a trajetória de Luiz da França e Silva e da revista Typographica.
@@ -16653,16 +16999,16 @@
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B144" t="n">
         <v>2024</v>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>Jean Pedro Silva de Sousa.
 						Da liberdade à frustração: o governo estadual de José Sarney no Maranhão entre 1965-1969.
@@ -16671,16 +17017,16 @@
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B145" t="n">
         <v>2024</v>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Jorge Luiz Pacheco.
 						Industriais e o pré-golpe empresarial-militar de 1964: ações e manifestações no CIRJ e na FIRJAN.
@@ -16689,16 +17035,16 @@
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B144" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C144" t="inlineStr">
+      <c r="B146" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>Pedro Henrique Corrêa Jacob.
 						Rogai por nós pecadores: a trajetória do cristianismo da libertação no Chile revolucionário.
@@ -16707,16 +17053,16 @@
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B145" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C145" t="inlineStr">
+      <c r="B147" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C147" t="inlineStr">
         <is>
           <t>João Pedro Teixeira Ferreira Thimoteo.
 						O Partido dos Trabalhadores aos olhos da ditadura: contrarrevolução e luta de massas na transição à democracia restrita (1979-1988).
@@ -16725,16 +17071,16 @@
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B146" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C146" t="inlineStr">
+      <c r="B148" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C148" t="inlineStr">
         <is>
           <t>Ingrid Ribeiro Santos Araujo.
 						ALVO ESTUDANTIL: A repressão contra o Movimento de Ocupações das escolas paulistas em 2015.
@@ -16743,16 +17089,16 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B147" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C147" t="inlineStr">
+      <c r="B149" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C149" t="inlineStr">
         <is>
           <t>Sofia Magalhães Gonçalves.
 						As relações entre o desenvolvimento do capitalismo e o processo de favelização no Rio de Janeiro (1893-1907).
@@ -16761,16 +17107,16 @@
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B148" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C148" t="inlineStr">
+      <c r="B150" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>Marcus Vinícius Nunes Medina.
 						Guerra do Paraguai: da senzala para o front, a guerra como alforria.
@@ -16779,16 +17125,16 @@
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>Renato Luis do Couto Neto e Lemos</t>
         </is>
       </c>
-      <c r="B149" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C149" t="inlineStr">
+      <c r="B151" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C151" t="inlineStr">
         <is>
           <t>Renata Figueiredo do Vale.
 						A violência urbana no Rio de Janeiro segundo o jornal Movimento.
@@ -16797,16 +17143,16 @@
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B150" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C150" t="inlineStr">
+      <c r="B152" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C152" t="inlineStr">
         <is>
           <t>JORDANA PEREIRA RODRIGUES.
 						Malakat?s y Siervos. Makatab y manumissíon Comparando fontes islâmicas e hispânicas sobre servidão e liberdade na Idade Média.
@@ -16816,16 +17162,16 @@
         </is>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B151" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C151" t="inlineStr">
+      <c r="B153" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C153" t="inlineStr">
         <is>
           <t>Louhana Rosa Dias de Oliveira.
 						Crime, pecado e remissão: Um olhar através das Escrituras de Perdão do Rio de Janeiro setecentista.
@@ -16834,16 +17180,16 @@
         </is>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B152" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C152" t="inlineStr">
+      <c r="B154" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>Lucas Almeida.
 						Degredados em Moçambique (século XIX).
@@ -16852,16 +17198,16 @@
         </is>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>Roberto Guedes Ferreira</t>
         </is>
       </c>
-      <c r="B153" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C153" t="inlineStr">
+      <c r="B155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C155" t="inlineStr">
         <is>
           <t>Daniel Soares Lopes Morais.
 						A composição social da Santa Casa de Misericória (Rio de Janeiro,1700-1800).
@@ -16870,16 +17216,16 @@
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>Silvia Regina Liebel</t>
         </is>
       </c>
-      <c r="B154" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C154" t="inlineStr">
+      <c r="B156" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C156" t="inlineStr">
         <is>
           <t>Giovana Souza Guimarães do Nascimento.
                             La Piú illustre ed eccellente matrona: Isabella d?Este e o poder pela arte do Renascimento italiano.
@@ -16888,16 +17234,16 @@
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+    <row r="157">
+      <c r="A157" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B157" t="n">
         <v>2024</v>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Rayssa Silva Vieira.
 						Totalitarismo em debate: as perspectivas do conceito em Arendt e Aron (1951-1965).
@@ -16906,16 +17252,16 @@
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B158" t="n">
         <v>2024</v>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Breno Ventura Barbosa.
 						O Debate dos anos 1920: a capitulação da teoria da Revolução Permanente no Partido Bolchevique (1923-1926).
@@ -16924,16 +17270,16 @@
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+    <row r="159">
+      <c r="A159" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B159" t="n">
         <v>2024</v>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>Isabel Christimann de Miranda.
 						Representações do Totalitarismo em Jogos Vorazes e as distopias como ferramenta de análise para a violência.
@@ -16942,16 +17288,16 @@
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+    <row r="160">
+      <c r="A160" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B160" t="n">
         <v>2024</v>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Pedro Cantarino Rezende.
 						?A política morreu, viva a política?: Uma análise dos sentidos da ação política e da democracia na plataforma política de Herbert Daniel (1986).
@@ -16960,16 +17306,16 @@
         </is>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B159" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C159" t="inlineStr">
+      <c r="B161" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>Murilo Rosa Garcias.
 						Um Judeu Maçom na Pregação Protestante: A trajetória de Salomão Guinsburg no Norte Fluminense (1890-1899).
@@ -16978,16 +17324,16 @@
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+    <row r="162">
+      <c r="A162" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B160" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C160" t="inlineStr">
+      <c r="B162" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>Eduardo Dias Campanelli.
 						A Estratégia discursiva sobre Memória na Graphic Novel Maus.
@@ -16996,16 +17342,16 @@
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+    <row r="163">
+      <c r="A163" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B161" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C161" t="inlineStr">
+      <c r="B163" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>Rodrigo Habl.
 						Da Infância à Primeira Guerra: a formação de Hitler nas biografias de Joachim Fest e Ian Kershaw.
@@ -17014,16 +17360,16 @@
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+    <row r="164">
+      <c r="A164" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B162" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C162" t="inlineStr">
+      <c r="B164" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>Leonardo Gonçalves da Costa.
 						Trabalhadores de todos os países e povos oprimidos de todo o mundo: uni-vos! O Congresso dos povos do Oriente (1920) e a luta anticolonial.
@@ -17032,16 +17378,16 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+    <row r="165">
+      <c r="A165" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B163" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C163" t="inlineStr">
+      <c r="B165" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>Maria Eduarda Fontes da Costa e Silva Merz.
 						Gênero e Humor: As Representações do Feminino nas Capas da Revista Simplicissimus (1933-1939).
@@ -17050,16 +17396,16 @@
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+    <row r="166">
+      <c r="A166" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B164" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C164" t="inlineStr">
+      <c r="B166" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>Harel Salim.
 						A nova direita e sua consolidação por meio de uma comunidade de sentido nas mídias sociais: análise do caso brasileiro.
@@ -17068,16 +17414,16 @@
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B165" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C165" t="inlineStr">
+      <c r="B167" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>Ana Beatriz Ferreira Marques.
 						Representações da Revolução no Filme Outubro, de Eisenstein.
@@ -17086,16 +17432,16 @@
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+    <row r="168">
+      <c r="A168" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B166" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C166" t="inlineStr">
+      <c r="B168" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>Lorrany Lima Alves da Costa.
 						'Shoah' - Uma análise sobre a necessidade da memória no debate público acerca do Holocausto.
@@ -17104,16 +17450,16 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+    <row r="169">
+      <c r="A169" t="inlineStr">
         <is>
           <t>Vinícius Aurélio Liebel</t>
         </is>
       </c>
-      <c r="B167" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C167" t="inlineStr">
+      <c r="B169" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>Bruno Wandermurem de Oliveira Medeiros.
 						Negacionismo gráfico: Israel e o Holocausto nos concursos de charges no Irã  (2006 e 2016).
@@ -17122,16 +17468,16 @@
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+    <row r="170">
+      <c r="A170" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B170" t="n">
         <v>2024</v>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Lizandra da Silva Rodrigues.
 						A arte da política: a ação da rainha Catarina de Portugal na representação visual do poder da dinastia de Avis.
@@ -17140,16 +17486,16 @@
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B169" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C169" t="inlineStr">
+      <c r="B171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C171" t="inlineStr">
         <is>
           <t>Milene dos Santos Ribeiro.
 						Da bestialidade ao súdito: o ensino jesuítico como dispositivo de manutenção de poder e organização social luso-brasileiro na Bahia (1549-1560).
@@ -17158,16 +17504,16 @@
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+    <row r="172">
+      <c r="A172" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B170" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C170" t="inlineStr">
+      <c r="B172" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C172" t="inlineStr">
         <is>
           <t>Mariana Barrozo Gonzalez.
 						O comportamento esperado e a prática realizada: casamento e divórcio no Rio de Janeiro no século XIX (1808-1831).
@@ -17177,16 +17523,16 @@
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+    <row r="173">
+      <c r="A173" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B171" t="n">
-        <v>2023</v>
-      </c>
-      <c r="C171" t="inlineStr">
+      <c r="B173" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>Andrey Damico Adorno Soares.
 						DAS PROMESSAS DE CASAMENTO AO ÓDIO CAPITAL: AS REPRESENTAÇÕES DE GÊNERO NAS AÇÕES DE DIVÓRCIO DO TRIBUNAL ECLESIÁSTICO DO RIO DE JANEIRO (1808-1823).
@@ -17196,16 +17542,16 @@
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+    <row r="174">
+      <c r="A174" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B172" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C172" t="inlineStr">
+      <c r="B174" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>Júlio Chaves Seixas.
 						REPRESENTAÇÕES DA HONRA E HONESTIDADE FEMININA E DA VIOLÊNCIA MASCULINA NOS LIBELOS DE DIVÓRCIO DO INÍCIO DO SÉCULO XIX NO RIO DE JANEIRO.
@@ -17215,16 +17561,16 @@
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+    <row r="175">
+      <c r="A175" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B173" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C173" t="inlineStr">
+      <c r="B175" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C175" t="inlineStr">
         <is>
           <t>Beatriz Martins de Andrade.
 						As plurais maternidades no Rio de Janeiro do século XIX.
@@ -17233,16 +17579,16 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t>William de Souza Martins</t>
         </is>
       </c>
-      <c r="B174" t="n">
-        <v>2021</v>
-      </c>
-      <c r="C174" t="inlineStr">
+      <c r="B176" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C176" t="inlineStr">
         <is>
           <t>Ariana Costa dos Santos.
 						Maria Joaquina da Costa Botelho de Magalhães: a matriarca da família Botelho Magalhães sob a ótica de correspondências entre 1863 e 1921.
